--- a/data/hotels_by_city/Dallas/Dallas_shard_612.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_612.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1056 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r558926597-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>55884</t>
+  </si>
+  <si>
+    <t>73528</t>
+  </si>
+  <si>
+    <t>558926597</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Wish I would've read more reviews</t>
+  </si>
+  <si>
+    <t>Somehow ended up in the not so clean room. Toothpaste on the bathroom wall, had to fix my own toilet and clean the looked like ralf on the floor, plus a white comforter that had a large yellow stain with coffee stains and tears, and the curtains had... something splattered on them, not to mention the ceiling had so much damage that I was afraid if it rained we'd get a free shower....also, just know there's stairs outside no elevator, and it's noisy as heck because there isn't enough insolation from interstate traffic, even if the fan is on.   Oh, but breakfast was good. Basically, not feeling the quality, just a hotel that needs a massive renovation. -.-MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Somehow ended up in the not so clean room. Toothpaste on the bathroom wall, had to fix my own toilet and clean the looked like ralf on the floor, plus a white comforter that had a large yellow stain with coffee stains and tears, and the curtains had... something splattered on them, not to mention the ceiling had so much damage that I was afraid if it rained we'd get a free shower....also, just know there's stairs outside no elevator, and it's noisy as heck because there isn't enough insolation from interstate traffic, even if the fan is on.   Oh, but breakfast was good. Basically, not feeling the quality, just a hotel that needs a massive renovation. -.-More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r533094297-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>533094297</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>There's More to a Hotel than Price!!</t>
+  </si>
+  <si>
+    <t>I read the reviews before booking this hotel. Somewhat misleading. We were in town for OU/Texas weekend for an unrelated event and finding a hotel was tough. Booked a two bed room, Dad and two daughters. Got a king with sofa bed. All they had. Ok stuff happens. The room was suppose to be no-smoking  found cig butts when I opened the sleeper. 2 towels for 3 people?  A second key to turn on electric in room?  Room door goes directly outside so smokers grouped outside the door smoking and AC pulling it into the room.  Unless you are accustomed to staying at very low end properties, avoid this hotel.  If you do stay at less expensive properties you will probably rate this 4 or 5 stars. I found a different hotel close by for an extra 20 bucks for the second night of our stay. I would have paid a lot more to get out of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I read the reviews before booking this hotel. Somewhat misleading. We were in town for OU/Texas weekend for an unrelated event and finding a hotel was tough. Booked a two bed room, Dad and two daughters. Got a king with sofa bed. All they had. Ok stuff happens. The room was suppose to be no-smoking  found cig butts when I opened the sleeper. 2 towels for 3 people?  A second key to turn on electric in room?  Room door goes directly outside so smokers grouped outside the door smoking and AC pulling it into the room.  Unless you are accustomed to staying at very low end properties, avoid this hotel.  If you do stay at less expensive properties you will probably rate this 4 or 5 stars. I found a different hotel close by for an extra 20 bucks for the second night of our stay. I would have paid a lot more to get out of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r464405033-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>464405033</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>Very friendly staff, but the hotel is so close to the freeway and poorly insulated for noise, so if you are not a sound sleeper and your room is on the wrong side (as was mine) It seems like the trucks are driving through your room all night...</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r380973961-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>380973961</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Very High Quality</t>
+  </si>
+  <si>
+    <t>Loved everything about it.  Great room, very comfortable bed, Well appointed and clean.  Good AC.  Breakfast was very good - lots to choose from.  Very quiet in the room even though it is close to a loud highway.  Will definitely consider again if I am in the area.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r371564999-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>371564999</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Weekend get away</t>
+  </si>
+  <si>
+    <t>My husband and I were looking for a motel close to Bass Pro and found this one.  Great location as it is right across I 30 from Bass Pro.  The room was nice and the bed was comfortable.  Upon check in, Tony made us feel quite welcome and was a pleasure to do business with.  Great breakfast bar with plenty of options to choose from.  Would definitely consider staying here again!!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r370442468-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>370442468</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Good stop over point</t>
+  </si>
+  <si>
+    <t>Staff was very friendly and helpful. Room was clean and even included a dining table and desk.  Good safe surroundings.  Pool was clean and inviting.  Ice machine was in an incovient place.  Was a good place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r353850889-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>353850889</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>We have stayed here for the last 8 years, our daughter lives in the condo's behind the Motel.. Tony has always made us feel like family. Being from N.Y. we are well aware of the staff members at Hotel's. You have a prize with Tony,,, Hope he will continue with his great personality, Love his smile and the way he treats us. Ray &amp; Joyce Mayo</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r349827143-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>349827143</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Anniversary get away...</t>
+  </si>
+  <si>
+    <t>Great place very comfortable. The room was clean  bed and pillows made the whole stay worth it... Good customer service. Staff very helpful. Our stay was peaceful. Will come back again....  Hopefully for a longer stay.......</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r349298016-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>349298016</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>A splendid hotel</t>
+  </si>
+  <si>
+    <t>We enjoy this hotel very much.It is clean en very friendly personnel.Breakfast is oke, every day a newspaper.It is lying between two lakes.On the road of 1-30 is espy to go to Dallas.Laura, Amsterdam, Netherlands.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r320360642-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>320360642</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent price great place </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed here several times never had a bad experience  decent breakfast in the morning usually  deal with Tony when I come in Great Guy always very helpful (been here forever) room s are clean staff is friendly </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r313126010-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>313126010</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Just Right</t>
+  </si>
+  <si>
+    <t>We stayed here in mid September and enjoyed it thoroughly! We had been very busy and needed a "breather" and this hotel popped up on our Choice search. It fit what we needed. Good price, convenient location, restaurants nearby, and a very nice pool. Staff was helpful and courteous and breakfast was typical for this price range. The only negative here, and it is no reflection on the property, but the interstate noise is quite loud. But the place is clean and sufficient for a short stay!</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r307979904-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>307979904</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Couldn't Wait To Check Out!</t>
+  </si>
+  <si>
+    <t>We needed an overnight stop near Rowlett TX.  The best thing to say about this hotel is that Tony at the front desk needs a promotion for being so friendly, accommodating and a better emissary than this property deserves.  Musty room.  Bath/Toilet area so small that the door couldn't close past the toilet seat.  Said toilet ran all night and the little coffee pot didn't work.  Very awkward plugs for chargers etc.  The carpet was dingy and the lighting very dim.  The re-furbished Best Western deserved a much better job with some sound-proofing.  Couldn't wait to check out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r278178999-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>278178999</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Clean, quiet room at a fair price</t>
+  </si>
+  <si>
+    <t>Clean, quiet, friendly front desk staff. Not hard to find, but the access is a bit tricky to navigate the first time, if you're heading east on Interstate 30. Like the new table lamps with extra electrical outlets..... nice touch if you have several electronic devices in need of charging.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r274855785-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>274855785</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Nice property - well maintained &amp; very helpful staff</t>
+  </si>
+  <si>
+    <t>We spent three nights at the Quality Inn.  The staff at the hotel are helpful, friendly and professional.  The hotel is a two-story property with no elevators.  The rooms open to the parking lot.  We had a ground floor room so we were able to park directly in front of it – very helpful for loading/unloading luggage.  The room was spacious and had a table &amp; chairs in addition to a king-size bed.  There was also a small refrigerator as well as a microwave oven.  The continental breakfast was very good and there was plenty of seating.  Newspapers were available at reception each morning.  As other reviewers have noted, the property is across the highway from the Bass Pro Shop.  There are lots of restaurants in the area as well as shopping in Garland, Rockwall and Mesquite.  We’re looking forward to a future visit at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We spent three nights at the Quality Inn.  The staff at the hotel are helpful, friendly and professional.  The hotel is a two-story property with no elevators.  The rooms open to the parking lot.  We had a ground floor room so we were able to park directly in front of it – very helpful for loading/unloading luggage.  The room was spacious and had a table &amp; chairs in addition to a king-size bed.  There was also a small refrigerator as well as a microwave oven.  The continental breakfast was very good and there was plenty of seating.  Newspapers were available at reception each morning.  As other reviewers have noted, the property is across the highway from the Bass Pro Shop.  There are lots of restaurants in the area as well as shopping in Garland, Rockwall and Mesquite.  We’re looking forward to a future visit at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r272820234-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>272820234</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Exceptional Customer Service</t>
+  </si>
+  <si>
+    <t>I had trouble printing my boarding pass, and a map back to the rental car office with the lobby computer. Tony, the night manager, spent close to an hour getting both of those done for me. He was patient and professional throughout the entire situation.After the map directions were finally printed, another late night staff member named Lonnie came in. Tony showed him the directions, which included a toll road, and turns on a lot of small streets. Lonnie said that was completely messed up, and gave me directions with only two turns. He got me to the rental car office in about 20 minutes.Both of these gentlemen were class guys. Easy-going and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had trouble printing my boarding pass, and a map back to the rental car office with the lobby computer. Tony, the night manager, spent close to an hour getting both of those done for me. He was patient and professional throughout the entire situation.After the map directions were finally printed, another late night staff member named Lonnie came in. Tony showed him the directions, which included a toll road, and turns on a lot of small streets. Lonnie said that was completely messed up, and gave me directions with only two turns. He got me to the rental car office in about 20 minutes.Both of these gentlemen were class guys. Easy-going and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r249573941-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>249573941</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>Very nice place to stay</t>
+  </si>
+  <si>
+    <t>This was a very nice place to stay. It is located right on the Hubbard reservoir and is easy on/off the interstate highway. The room was very comfortable with a good bed. The free wi/fi worked great. The desk staff was very knowledgeable about the area and recommended a few good places to eat. The free breakfast was very enjoyable and did not leave me wanting to eat somewhere else. There is a Bass Pro Shop on the other side of the interstate highway for the outdoorsman. There are several restaurants as well. This hotel also has a pool and spa which would be nice in the summer.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r242047756-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>242047756</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Bring Exterminating equipment</t>
+  </si>
+  <si>
+    <t>Although the rooms seem clean, we experienced problems with ants crawling in the bathroom and lavatory and roaches coming out from under the sink. And if you want breakfast, get there extra early, cause they don't put any out after it is gone from the first time.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r234955964-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>234955964</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Pet friendly!</t>
+  </si>
+  <si>
+    <t>Husband had a job interview and we took our dogs into Dallas with us. The dog walking area is PHENOMENAL! Right next to the lake with a huge field. We had the king room with a Jacuzzi. The room was a good size. It coulda been cleaner (vacuum around the edges of the carpet) cigarette burn on the carpet and the dust ruffle. The AC was either ON or you had to unplug it. The buttons didn't work to adjust the temp. We just left it on (at 63 degrees I might add) because of the dogs. They loved it, we were pretty chilly outside of the covers though! The Jacuzzi was big &amp; worked very well but was older with obvious tiny cracks in the plastic. Overall it could definitely use some updating but the front desk guy Tony was very nice and the outside of the property made up for it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Husband had a job interview and we took our dogs into Dallas with us. The dog walking area is PHENOMENAL! Right next to the lake with a huge field. We had the king room with a Jacuzzi. The room was a good size. It coulda been cleaner (vacuum around the edges of the carpet) cigarette burn on the carpet and the dust ruffle. The AC was either ON or you had to unplug it. The buttons didn't work to adjust the temp. We just left it on (at 63 degrees I might add) because of the dogs. They loved it, we were pretty chilly outside of the covers though! The Jacuzzi was big &amp; worked very well but was older with obvious tiny cracks in the plastic. Overall it could definitely use some updating but the front desk guy Tony was very nice and the outside of the property made up for it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r232636748-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>232636748</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Great Place I will stay there again if I am in that area and would recommend it . If you are in that area give it a try. Not a high dollar motel but the staff and quality is high dollar. That is all I have to say about that!!!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r223536569-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>223536569</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Clean, nice staff, and fairly priced</t>
+  </si>
+  <si>
+    <t>The fact that its right off the lake was very appealing to me. The front desk clerk was very nice and friendly, made check in an easy painless process. The room was very clean, and i"ve been a housekeeper before so i know the little nooks and crannies that some people might overlook. The carpets were very clean and the room was very comfortable. For the price it is definitely worth it, when in garland this will be where I stay!!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r222111931-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>222111931</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>BEST WESTERN</t>
+  </si>
+  <si>
+    <t>Of the hotels to stay in Rockwall, for the value and quality, this was the best place. Staff very helpful. They were very thorough in explaining the process. The card key machine was not working right, so the employee accompanied me to the room and placed a card in the light switch socket and later brought me a room key, all so I didnt have to wait. Employee called me 5 minutes later to check to see if there was anything I needed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r215059214-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>215059214</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Don't let the location fool you, I hate to say it but this place is terrible!</t>
+  </si>
+  <si>
+    <t>I'll be honest I did not stay at this hotel. What a waste! This location is amazing, right off the lake you COULD enjoy a beautiful long walk along the water's edge. First of all they lost my trip advisor reservation from tingo but still tried to charge me for it.  When pulling around to our room it was like driving into one of those neighborhoods where you just DO NOT FEEL SAFE! My husband's not afraid of anything but he didn't want to stay there.  Additionally, the rooms are very dated, the fixtures and bedding were EXTREMELY CHEAP.  This place gives Best Western a bad name. The manager Barbara Bash is a delightful woman (do yourself a favor Barbra and get a job somewhere else)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I'll be honest I did not stay at this hotel. What a waste! This location is amazing, right off the lake you COULD enjoy a beautiful long walk along the water's edge. First of all they lost my trip advisor reservation from tingo but still tried to charge me for it.  When pulling around to our room it was like driving into one of those neighborhoods where you just DO NOT FEEL SAFE! My husband's not afraid of anything but he didn't want to stay there.  Additionally, the rooms are very dated, the fixtures and bedding were EXTREMELY CHEAP.  This place gives Best Western a bad name. The manager Barbara Bash is a delightful woman (do yourself a favor Barbra and get a job somewhere else)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r213232034-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>213232034</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Watch Your Bill</t>
+  </si>
+  <si>
+    <t>Charged by Card 53,000 dollars and then made it impossible for me to do my job as an Pilot car cause it caused my card to be put on hold. The manager showed no concern on how to make sure this didn't happen to others at their motel</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r212417768-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>212417768</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t>I really enjoyed staying here with my husband calm neighboor hood. Awesome view to Rockwall Lake. Overall excelent stay. 30 minute trip to Dallas downtown, awesome stores around area and Mall where we did some shopping.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r210677158-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>210677158</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Lovely place to stay</t>
+  </si>
+  <si>
+    <t>We had a wonderful night's stay at this facility. Near to Lake Ray Hubbard, near shopping and dining, and near to the family we came to visit.  Also easy access to the highway.  The room was great! I would highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r208633349-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>208633349</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Very Happy</t>
+  </si>
+  <si>
+    <t>The woman at the front desk allowed us to check-in early and was extremely polite and friendly. The bed (we stayed in a non-smoking, pet-friendly king room) was the most comfortable I have ever slept on. There was a storm while we were there and we couldn't hear it at all unless we opened the door. Clean, well-priced, and convientely located, We would def stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r204230492-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>204230492</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Very nice cozy hotel</t>
+  </si>
+  <si>
+    <t>Everything about our stay was very nice.  This hotel is a little older and does have outside entrance to each room, but it was very quiet, clean and cozy.  The staff was very accommodating.   The complimentary breakfast was very good.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r202654167-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>202654167</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Request Overlooked</t>
+  </si>
+  <si>
+    <t>When I first booked the room over a month ago, I explicitly explained that we had a dog that is a diabetic and has to go out to pee a lot and is also blind. I requested a room on the bottom floor and whoever booked my reservation (a female during the day shift) said she would put that in the notes. I even called to confirm we still had a reservation 3 days before we arrived and reminded them we had a dog. I did not say anything about a room on the bottom floor but was assured that we would be placed on the back side where the apartments are. That was fine. When we arrived, the desk clerk was a lady in her late 40's to 50's with long dark hair. She explained where our room was and I said, "It's not on the bottom floor?" She told us it was on the second floor. I explained what issues we had with our dog and she still said it was on the second floor then proceeded to explain where the pet area was. I tried to tell her that our dog has to go out very frequently and in the middle of the night and that as soon as his feet hit the grass he would pee. She said we could pick him up and carry him to the pet area (we were in room 228 which...When I first booked the room over a month ago, I explicitly explained that we had a dog that is a diabetic and has to go out to pee a lot and is also blind. I requested a room on the bottom floor and whoever booked my reservation (a female during the day shift) said she would put that in the notes. I even called to confirm we still had a reservation 3 days before we arrived and reminded them we had a dog. I did not say anything about a room on the bottom floor but was assured that we would be placed on the back side where the apartments are. That was fine. When we arrived, the desk clerk was a lady in her late 40's to 50's with long dark hair. She explained where our room was and I said, "It's not on the bottom floor?" She told us it was on the second floor. I explained what issues we had with our dog and she still said it was on the second floor then proceeded to explain where the pet area was. I tried to tell her that our dog has to go out very frequently and in the middle of the night and that as soon as his feet hit the grass he would pee. She said we could pick him up and carry him to the pet area (we were in room 228 which is the last room on the top floor and around the corner from the stairs). Our dog weighs 42lbs. Carrying him up and down the stairs is not an option for us. I have a disability with blood pressure.  She was businessly friendly, but not at all helpful or sympathetic. We really did love the size of the room and the location, but would've been much more satisfied if it had been on any bottom floor. There were other people with dogs on the bottom floor and I dare say they did not meet the special needs that we did. I understand that rooms get filled up and people are placed wherever they can be placed, but I made the reservations over a month ago and specifically stated what I needed. If we ever come back to Rockwall, and we would love to, we would enjoy coming back to this hotel due to the convenience, the price, and we really liked it, but it would be hard to trust that our needs would be met like we had asked. Also, we were up late and were tired and there was no "Do Not Disturb" sign to hang outside the door and we were awaked every morning by 9:40 by housekeeping wanting to clean the room. We didn't ask for that, but were happy it was done after we came back later that day. It would really be nice if they had notes saying who was leaving and who was staying so they didn't wake them up early wanting to clean. There was no need for that when we really needed to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I first booked the room over a month ago, I explicitly explained that we had a dog that is a diabetic and has to go out to pee a lot and is also blind. I requested a room on the bottom floor and whoever booked my reservation (a female during the day shift) said she would put that in the notes. I even called to confirm we still had a reservation 3 days before we arrived and reminded them we had a dog. I did not say anything about a room on the bottom floor but was assured that we would be placed on the back side where the apartments are. That was fine. When we arrived, the desk clerk was a lady in her late 40's to 50's with long dark hair. She explained where our room was and I said, "It's not on the bottom floor?" She told us it was on the second floor. I explained what issues we had with our dog and she still said it was on the second floor then proceeded to explain where the pet area was. I tried to tell her that our dog has to go out very frequently and in the middle of the night and that as soon as his feet hit the grass he would pee. She said we could pick him up and carry him to the pet area (we were in room 228 which...When I first booked the room over a month ago, I explicitly explained that we had a dog that is a diabetic and has to go out to pee a lot and is also blind. I requested a room on the bottom floor and whoever booked my reservation (a female during the day shift) said she would put that in the notes. I even called to confirm we still had a reservation 3 days before we arrived and reminded them we had a dog. I did not say anything about a room on the bottom floor but was assured that we would be placed on the back side where the apartments are. That was fine. When we arrived, the desk clerk was a lady in her late 40's to 50's with long dark hair. She explained where our room was and I said, "It's not on the bottom floor?" She told us it was on the second floor. I explained what issues we had with our dog and she still said it was on the second floor then proceeded to explain where the pet area was. I tried to tell her that our dog has to go out very frequently and in the middle of the night and that as soon as his feet hit the grass he would pee. She said we could pick him up and carry him to the pet area (we were in room 228 which is the last room on the top floor and around the corner from the stairs). Our dog weighs 42lbs. Carrying him up and down the stairs is not an option for us. I have a disability with blood pressure.  She was businessly friendly, but not at all helpful or sympathetic. We really did love the size of the room and the location, but would've been much more satisfied if it had been on any bottom floor. There were other people with dogs on the bottom floor and I dare say they did not meet the special needs that we did. I understand that rooms get filled up and people are placed wherever they can be placed, but I made the reservations over a month ago and specifically stated what I needed. If we ever come back to Rockwall, and we would love to, we would enjoy coming back to this hotel due to the convenience, the price, and we really liked it, but it would be hard to trust that our needs would be met like we had asked. Also, we were up late and were tired and there was no "Do Not Disturb" sign to hang outside the door and we were awaked every morning by 9:40 by housekeeping wanting to clean the room. We didn't ask for that, but were happy it was done after we came back later that day. It would really be nice if they had notes saying who was leaving and who was staying so they didn't wake them up early wanting to clean. There was no need for that when we really needed to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r199483083-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>199483083</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>I'd return here</t>
+  </si>
+  <si>
+    <t>It's not fancy, but it's nice and comfortable and I felt safe.  The breakfast could be a little better.  The staff is friendly and relaxed.  Bass Pro Shop is across the street and the restaurant was very good.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r199483240-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>199483240</t>
+  </si>
+  <si>
+    <t>hotel in Garland Texas</t>
+  </si>
+  <si>
+    <t>Rooms clean but there were some ants. Noisy highway made it hard for me to sleep. I only had one night there, but would not have stayed longer. Close to lake for fishing, which is good for sportsmen. Glad I was able to drive there in daylight, as directions for motel confusing because of the roads and signs. I know breakfast was available but I had an early flight.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r195286677-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>195286677</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Does ANYTHING work and WHAT did you do to the Sausage?</t>
+  </si>
+  <si>
+    <t>Decent enough hotel, good value but there were many things that were not in operational shape.  The lobby has no carpet, just bare dusty concrete in anticipation of tile work.  All the machines are put back on the bare concrete so hard to say WHEN it will be carpeted.  The lobby bathroom was inoperative for all 3 days as was the guest laundry which according to staff, does not even have machines.  Not sure what they did to the breakfast sausage but it was warm, yet white and flaccid...  Like it was boiled or something...</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r190818928-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>190818928</t>
+  </si>
+  <si>
+    <t>01/14/2014</t>
+  </si>
+  <si>
+    <t>Front Desk Rude</t>
+  </si>
+  <si>
+    <t>The guy at the front desk was rude and not friendy at all.  Place is small and is a dump.  Not easy to get to from east bound side of i30.  Not much around either.  Low-end apartment complex next to it with beat up cars in parking lot.  Poor lightling in parking lot.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r189279151-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>189279151</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>1st Stay - Will Return.  Great Hotel for the Price</t>
+  </si>
+  <si>
+    <t>Stayed a total of 6 nights while visiting the area.  The staff, especially Tony, were helpful &amp; friendly.  The room was spacious with a table &amp; chairs in addition to the usual furniture along the wall.  Beds were double rather than queen, but that was not a problem.  Plenty of towels and a clean bathroom.  Heating/AC unit was quiet and efficient with a digital thermostat which was easy to set and read.  Breakfast was the usual hotel fare and adequate.  The Texas shaped waffle maker was a nice touch.  The location is very easy coming from the east off I-30.  If you are coming from the west, reaching the hotel can be a bit confusing.  From I-30, you take the exit for Bass Pro drive and then go over I-30 via a overpass and then go left to dead-end into the I-30 service road.  At the dead-end stop sign, is a sign indicating the service road is one-way to the right.  However, if you look left, you will see the service road is two-way and you can turn left to reach the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Stayed a total of 6 nights while visiting the area.  The staff, especially Tony, were helpful &amp; friendly.  The room was spacious with a table &amp; chairs in addition to the usual furniture along the wall.  Beds were double rather than queen, but that was not a problem.  Plenty of towels and a clean bathroom.  Heating/AC unit was quiet and efficient with a digital thermostat which was easy to set and read.  Breakfast was the usual hotel fare and adequate.  The Texas shaped waffle maker was a nice touch.  The location is very easy coming from the east off I-30.  If you are coming from the west, reaching the hotel can be a bit confusing.  From I-30, you take the exit for Bass Pro drive and then go over I-30 via a overpass and then go left to dead-end into the I-30 service road.  At the dead-end stop sign, is a sign indicating the service road is one-way to the right.  However, if you look left, you will see the service road is two-way and you can turn left to reach the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r184928250-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>184928250</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Great Night's Sleep!</t>
+  </si>
+  <si>
+    <t>Great service at the Best Western Lakeview Inn. Quiet corner in the back and did not hear any traffic from Interstate 30. The room was clean, bed very comfortable with a great shower. Breakfast was good and fresh tasting. No complaints and would stay again if  travelling in the area.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r183712755-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>183712755</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Bad mosquitoe problem---was not that clean--very noisy freeway traffic--avoid it like the plaque.It is situated in an area that was desirable for my needs but it just did not measure up to what I was used to My next trip to this area I will spend more money and stay at a better place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r182895214-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>182895214</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Excellant Value</t>
+  </si>
+  <si>
+    <t>Wonderfully helpful staff great access from freeway slept like a baby! The room is neat and clean hot water instantly for a great shower, even great t v and the best the rooms are quiet. The staff was incredibly helpful going out of their way to help me navigate the freeways and get to the airport on time and in a safe manner, what else is there to love but a friendly helpful safe place to call home for a few days! Great time here.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r181179168-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>181179168</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Nice Best Western!</t>
+  </si>
+  <si>
+    <t>This Best Western is in a pretty good location.  Easy access to I-30 and also to the President George Bush Turnpike (which is a great road to use to avoid Dallas traffic).  It is about a 20 minute drive in good traffic or an hour in bad to downtown Dallas.  The staff was very friendly and great on my arrival and departure.  The room was clean, the bed was very comfortable, and it was a nice area which are the main things I look for when staying in a hotel.  The breakfast was pretty basic but at this price range of hotel that is expected.  The room furnishings are nothing fancy but if your just looking for a great place to sleep for a night or two in the area at a good price, this is a great one to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Best Western is in a pretty good location.  Easy access to I-30 and also to the President George Bush Turnpike (which is a great road to use to avoid Dallas traffic).  It is about a 20 minute drive in good traffic or an hour in bad to downtown Dallas.  The staff was very friendly and great on my arrival and departure.  The room was clean, the bed was very comfortable, and it was a nice area which are the main things I look for when staying in a hotel.  The breakfast was pretty basic but at this price range of hotel that is expected.  The room furnishings are nothing fancy but if your just looking for a great place to sleep for a night or two in the area at a good price, this is a great one to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r179651729-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>179651729</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>Very Very Very nice clean place</t>
+  </si>
+  <si>
+    <t>The guy who checked us in was TONY,, he was very sweet and very professional, dressed really nice.. he showed me how to use the key card to turn on the lights in the room ( this was a new one for me ), and we loved our clean, room, it smelled wonderful, the room was already nice and cool..Hubby decided to take a walk down to the lake to take a look, he came back very disapointed , he said there was trash and beer cans littering the shores of the lake, how sad.The shower was terrific.. breakfast was nice, we had plenty to eat:-)The WIFI worked just fine too.MoreShow less</t>
+  </si>
+  <si>
+    <t>The guy who checked us in was TONY,, he was very sweet and very professional, dressed really nice.. he showed me how to use the key card to turn on the lights in the room ( this was a new one for me ), and we loved our clean, room, it smelled wonderful, the room was already nice and cool..Hubby decided to take a walk down to the lake to take a look, he came back very disapointed , he said there was trash and beer cans littering the shores of the lake, how sad.The shower was terrific.. breakfast was nice, we had plenty to eat:-)The WIFI worked just fine too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r175710088-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>175710088</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Quick overnight stay</t>
+  </si>
+  <si>
+    <t>We stayed one night. The children loved the pool, breakfast was breakfast, and the location off I-30 is great. The rates were good, and the room was clean. For a quick stop-over, this Best Western delivered. We will come back again.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r171828340-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>171828340</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>I spent two nights here and found this hotel/room to be comfortable, clean, and staff was helpful as needed.  There is a pool, and lake view! Pet friendly, and I will be sure to stay here when I have to be in Garland/Dallas area next.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r171282668-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>171282668</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Best Western Lakeview</t>
+  </si>
+  <si>
+    <t>Good value, clean rooms.  We experienced minor problem with the room getting cool enough, but the A/C was completely off when we checked in at 8 pm and the temps during the day had reached over 100 degrees.  Otherwise, it was a decent room for a reasonable rate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r170794204-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>170794204</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our stay at this hotel. It was actually a second time experience.  We traveled with our dogs and chose this pet friendly hotel both times.  Great staff, great room, and great price.  Thank you.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r159025474-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>159025474</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Great Moyel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After another stay at this very nice motel....again it was a great quiet stay with NO problems. Rooms are very nice, clean and staff helpful. Nice location outside the rush of downtown Dallas. Parking was nice ans security lighting great. Will stay here again and tell friends of this value.   </t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r151902374-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>151902374</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>The Best western staff was very friendly the time I was there.The rooms were very clean with nice decor.The outside was very clean.I had a nice view of the lake from my room.There are restaurants not to for from the motel."Make sure to fill out a survey card,they can be found in the room or front desk,if not you can call 800-780-7234 ask for customer service,B/W does value their customers."</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r150886438-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>150886438</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>This was a decent room with a good bed. We really could not ask for more after a long day of travel.  The room was clean and roomy.  They also had plenty of towels and pillows.  The front clerk was also very friendly. The shower curtains were to close but the shower itself was good.  Noisy location due to the freeway right outside.  I did not care for the ice machine outside by the pool but it was not a deal breaker.  Nice flat screen TV.  Overall, definitely worth the $55 rate.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r135928712-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>135928712</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Personal Care</t>
+  </si>
+  <si>
+    <t>Because of illness, we were unable to make our trip.  However, the folks at Best Western were extremely helpful and courteous when we called.  I will definitely put Best Western at the top of our list for future trips.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r133032664-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>133032664</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>Great place for dog owners</t>
+  </si>
+  <si>
+    <t>We stayed here one night on our move from Atlanta to Dallas in May 2012 and everything was great overall. We had one snafu with our reservation and when I arrived to check in, they said they had just released the room and marked us as a no-show, but luckily the room was still available. So make sure you double-check your reservation the day of! Otherwise, the room was very clean and comfortable. The bed was comfortable and had modern white linens (not those old ugly bed covers that some old chains still have...). We stayed with our dog, which we're always weary of doing because most hotels that accept dogs are pretty gross. But you'd never know another dog stayed in this room, it was spotless and smelled fresh and clean. They have a good-sized grassy area for letting your dog do its business, and a big open grassy field next door is great for a quick walk or run around. Breakfast in the morning was typical, loved the Texas-shaped waffle irons. The breakfast room was clean, nicely decorated. The staff were all friendly. Overall, I would definitely recommend this hotel as a great value option, especially for people traveling with dogs.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>We stayed here one night on our move from Atlanta to Dallas in May 2012 and everything was great overall. We had one snafu with our reservation and when I arrived to check in, they said they had just released the room and marked us as a no-show, but luckily the room was still available. So make sure you double-check your reservation the day of! Otherwise, the room was very clean and comfortable. The bed was comfortable and had modern white linens (not those old ugly bed covers that some old chains still have...). We stayed with our dog, which we're always weary of doing because most hotels that accept dogs are pretty gross. But you'd never know another dog stayed in this room, it was spotless and smelled fresh and clean. They have a good-sized grassy area for letting your dog do its business, and a big open grassy field next door is great for a quick walk or run around. Breakfast in the morning was typical, loved the Texas-shaped waffle irons. The breakfast room was clean, nicely decorated. The staff were all friendly. Overall, I would definitely recommend this hotel as a great value option, especially for people traveling with dogs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r130061225-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>130061225</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>We stayed here 4 nights when a tree branch fell on our power line &amp; started a small fire. The room was good sized with a microwave &amp; mini fridge.  Breakfast was the normal food you get at a hotel.  I had no complaints whatsoever.  Promo's Tex -Mex by Bass Pro shop was really good for dinner.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r119658056-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>119658056</t>
+  </si>
+  <si>
+    <t>10/24/2011</t>
+  </si>
+  <si>
+    <t>Great value and nicely equipped</t>
+  </si>
+  <si>
+    <t>I stayed here without a reservation and was pleasently surprised.  Desk, table and chairs, microwave, fridge, plenty of towels, good bed linens, in room safe, and coffee maker. Near some great restaurants less than a mile away.  A good place to stay if heading east on I30 and wanting to avoid the morning traffic into Dallas.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r119501713-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>119501713</t>
+  </si>
+  <si>
+    <t>10/19/2011</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Best Western Lakeview Inn is located in the middle of all of our family located in the Dallas area. We have been staying at this hotel for many years and have always had a wonderful stay. In the past year they have updated the rooms and are up to date and very comfortable. The staff was very helpful with information regarding the State Fair on this trip (They are always very professional and friendly). I would recommend this hotel for all of my family and friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r116940995-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>116940995</t>
+  </si>
+  <si>
+    <t>08/19/2011</t>
+  </si>
+  <si>
+    <t>Great stop on our last travel night</t>
+  </si>
+  <si>
+    <t>Used a travel coupon for a lower rate.  Hotel is a bit aged but clean and well kept.  Hotel staff was friendly and helpful.  Biggest surprise was the outdoor hot tub next to the pool.  After a day of travel it was so relaxing to let the heat loosen up the stiff joints.  Room was quiet and cleen.  Beds were comfortable, and we had a hot breakfast too.  WIFI was not good but I was in an end room.  Managed to connect to internet, but not much else.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r115821635-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>115821635</t>
+  </si>
+  <si>
+    <t>07/26/2011</t>
+  </si>
+  <si>
+    <t>all the basics covered with great value</t>
+  </si>
+  <si>
+    <t>I just spent five nights here while conducting family business in the area. I have traveled a lot over my career and stayed in every type of hotel from cheap to the very best. So by comparison  I feel compelled to complement this nice, well managed hotel.The Lakeside Hotel is outstanding value for a clean up to date place to stay. My room was a really decent size, the king bed was super, the air conditioning totally up to the job (100 degree days) and the rest of the room and bath was modern and up to date. The maid service was perfect, and the rest of the staff was cheerful and helpful through out my stay.The bonuses are the breakfast each morning, and the really nice pool out  back away from the freeway. I was there on the 25th consecutive day over 100 degrees so the pool was a real plus.Two thumbs up for covering the essentials with really good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I just spent five nights here while conducting family business in the area. I have traveled a lot over my career and stayed in every type of hotel from cheap to the very best. So by comparison  I feel compelled to complement this nice, well managed hotel.The Lakeside Hotel is outstanding value for a clean up to date place to stay. My room was a really decent size, the king bed was super, the air conditioning totally up to the job (100 degree days) and the rest of the room and bath was modern and up to date. The maid service was perfect, and the rest of the staff was cheerful and helpful through out my stay.The bonuses are the breakfast each morning, and the really nice pool out  back away from the freeway. I was there on the 25th consecutive day over 100 degrees so the pool was a real plus.Two thumbs up for covering the essentials with really good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r115374827-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>115374827</t>
+  </si>
+  <si>
+    <t>07/14/2011</t>
+  </si>
+  <si>
+    <t>We loved it very clean</t>
+  </si>
+  <si>
+    <t>Rooms were clean and beds were comfortable. Pretty good continental breakfast. Pool was nice. Good restaurant across the street were great. Staff was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r100668519-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>100668519</t>
+  </si>
+  <si>
+    <t>03/18/2011</t>
+  </si>
+  <si>
+    <t>Great new rooms</t>
+  </si>
+  <si>
+    <t>Our hotel room was much nicer than the outside of the building.  I was pleasantly surprised to find our room so nice and new.  The bed was very comfortable and the sheets were so refreshing.  I was very impressed with this room.  Only problem we had was the traffic noise but that can't be helped as it is right off the highway.  The staff was nice and breakfast was good too.  I love Best Westerns!</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r52331171-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>52331171</t>
+  </si>
+  <si>
+    <t>01/01/2010</t>
+  </si>
+  <si>
+    <t>Nice hotel, great location</t>
+  </si>
+  <si>
+    <t>We were on a road trip from Central California to Texas and Oklahoma for the Christmas holidays and stayed at the Best Western Lakeview Motel while visiting relatives in Rowlett.  Trip Advisor reviews had been very positive about the motel, and we agreed with them 100%.    It is well located just off a major highway and easy to find.  I was concerned about highway noise, but once in the room it was very quiet.  The room was huge, with a king bed and table and chairs.  It could have held a loveseat or easy chair without a problem (hint to the manager!).  The bed was very comfortable, which we appreciated after a long drive.  There was a nice breakfast, with hot items along with cereal, toast, and danish.  The clerks were very friendly and helpful with local information. We would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>We were on a road trip from Central California to Texas and Oklahoma for the Christmas holidays and stayed at the Best Western Lakeview Motel while visiting relatives in Rowlett.  Trip Advisor reviews had been very positive about the motel, and we agreed with them 100%.    It is well located just off a major highway and easy to find.  I was concerned about highway noise, but once in the room it was very quiet.  The room was huge, with a king bed and table and chairs.  It could have held a loveseat or easy chair without a problem (hint to the manager!).  The bed was very comfortable, which we appreciated after a long drive.  There was a nice breakfast, with hot items along with cereal, toast, and danish.  The clerks were very friendly and helpful with local information. We would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r42057361-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>42057361</t>
+  </si>
+  <si>
+    <t>09/15/2009</t>
+  </si>
+  <si>
+    <t>Pleasant choice</t>
+  </si>
+  <si>
+    <t>The nice young man on the desk took care of our check-in professionally and gave us an excellent suggestion for dinner.  We wanted a nice place but did not want to drive back and forth on the interstate.  The seafood restaurant INSIDE The Bass Pro Shop was a surprise: moist fresh seafood at a fair price in a restful setting - and it was so easy to get to.  The room was clean and had a table with chairs, a microwave, and a small fridge.  The TV was large enough to enjoy the picture.  We used a coupon from one of the travel magazines you can get at the state welcome station and the two queen bedded room with hot breakfast was $49 - a good deal.  The motel is right on the lake and we enjoyed walking around the grounds to see the boaters.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>The nice young man on the desk took care of our check-in professionally and gave us an excellent suggestion for dinner.  We wanted a nice place but did not want to drive back and forth on the interstate.  The seafood restaurant INSIDE The Bass Pro Shop was a surprise: moist fresh seafood at a fair price in a restful setting - and it was so easy to get to.  The room was clean and had a table with chairs, a microwave, and a small fridge.  The TV was large enough to enjoy the picture.  We used a coupon from one of the travel magazines you can get at the state welcome station and the two queen bedded room with hot breakfast was $49 - a good deal.  The motel is right on the lake and we enjoyed walking around the grounds to see the boaters.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r31260186-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>31260186</t>
+  </si>
+  <si>
+    <t>05/31/2009</t>
+  </si>
+  <si>
+    <t>Wonderful experience!</t>
+  </si>
+  <si>
+    <t>This hotel was wonderful.  We travel with our two dogs and they were very accomodating.  They even had a good sized area specially reserved to take your pets "outside".  The rooms were clean and comfortable, the shower was great.  The maid service and front desk were very friendly and helpful.  They even had a great hot breakfast.  The pool was clean and nice.  I recommend this hotel highly.  Thank you for a great stay.  We will be back!</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r5944706-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>5944706</t>
+  </si>
+  <si>
+    <t>10/11/2006</t>
+  </si>
+  <si>
+    <t>Newly renovated rooms</t>
+  </si>
+  <si>
+    <t>We liked this hotel from the minute that we were greeted in the lobby. The lady at the front desk was the owner and she treated us like a special guests right from the start.  We stayed in a king mini suite which had been completely refurnished very recently, so everything was clean and updated.   There is a Bass Pro being completed across the street on the edge of the lake and there are many nice restaurant options within a few miles.  The only thing that keeps this hotel from being perfect is the fact that it is 200 yards off of I-30, so you can hear the buzz of traffic from the rooms with doors that open to the exterior.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>We liked this hotel from the minute that we were greeted in the lobby. The lady at the front desk was the owner and she treated us like a special guests right from the start.  We stayed in a king mini suite which had been completely refurnished very recently, so everything was clean and updated.   There is a Bass Pro being completed across the street on the edge of the lake and there are many nice restaurant options within a few miles.  The only thing that keeps this hotel from being perfect is the fact that it is 200 yards off of I-30, so you can hear the buzz of traffic from the rooms with doors that open to the exterior.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1698,3734 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>208</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>230</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" t="s">
+        <v>237</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" t="s">
+        <v>242</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>243</v>
+      </c>
+      <c r="O34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" t="s">
+        <v>249</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>250</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>250</v>
+      </c>
+      <c r="O36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38" t="s">
+        <v>264</v>
+      </c>
+      <c r="K38" t="s">
+        <v>265</v>
+      </c>
+      <c r="L38" t="s">
+        <v>266</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>261</v>
+      </c>
+      <c r="O38" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>269</v>
+      </c>
+      <c r="J39" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>261</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>275</v>
+      </c>
+      <c r="J40" t="s">
+        <v>276</v>
+      </c>
+      <c r="K40" t="s">
+        <v>277</v>
+      </c>
+      <c r="L40" t="s">
+        <v>278</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>279</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" t="s">
+        <v>284</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>279</v>
+      </c>
+      <c r="O41" t="s">
+        <v>75</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>279</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>291</v>
+      </c>
+      <c r="J43" t="s">
+        <v>292</v>
+      </c>
+      <c r="K43" t="s">
+        <v>293</v>
+      </c>
+      <c r="L43" t="s">
+        <v>294</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>295</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L44" t="s">
+        <v>300</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>301</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>303</v>
+      </c>
+      <c r="J45" t="s">
+        <v>304</v>
+      </c>
+      <c r="K45" t="s">
+        <v>305</v>
+      </c>
+      <c r="L45" t="s">
+        <v>306</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>307</v>
+      </c>
+      <c r="O45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>309</v>
+      </c>
+      <c r="J46" t="s">
+        <v>310</v>
+      </c>
+      <c r="K46" t="s">
+        <v>311</v>
+      </c>
+      <c r="L46" t="s">
+        <v>312</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>313</v>
+      </c>
+      <c r="O46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" t="s">
+        <v>317</v>
+      </c>
+      <c r="L47" t="s">
+        <v>318</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>319</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>320</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" t="s">
+        <v>322</v>
+      </c>
+      <c r="K48" t="s">
+        <v>323</v>
+      </c>
+      <c r="L48" t="s">
+        <v>324</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>325</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>327</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>328</v>
+      </c>
+      <c r="J49" t="s">
+        <v>329</v>
+      </c>
+      <c r="K49" t="s">
+        <v>330</v>
+      </c>
+      <c r="L49" t="s">
+        <v>331</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>325</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>332</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>333</v>
+      </c>
+      <c r="J50" t="s">
+        <v>334</v>
+      </c>
+      <c r="K50" t="s">
+        <v>335</v>
+      </c>
+      <c r="L50" t="s">
+        <v>336</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>337</v>
+      </c>
+      <c r="O50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>338</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>339</v>
+      </c>
+      <c r="J51" t="s">
+        <v>340</v>
+      </c>
+      <c r="K51" t="s">
+        <v>341</v>
+      </c>
+      <c r="L51" t="s">
+        <v>342</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>337</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>343</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>344</v>
+      </c>
+      <c r="J52" t="s">
+        <v>345</v>
+      </c>
+      <c r="K52" t="s">
+        <v>346</v>
+      </c>
+      <c r="L52" t="s">
+        <v>347</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>348</v>
+      </c>
+      <c r="O52" t="s">
+        <v>82</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>349</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>350</v>
+      </c>
+      <c r="J53" t="s">
+        <v>351</v>
+      </c>
+      <c r="K53" t="s">
+        <v>352</v>
+      </c>
+      <c r="L53" t="s">
+        <v>353</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>354</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>356</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>357</v>
+      </c>
+      <c r="J54" t="s">
+        <v>358</v>
+      </c>
+      <c r="K54" t="s">
+        <v>359</v>
+      </c>
+      <c r="L54" t="s">
+        <v>360</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>354</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>362</v>
+      </c>
+      <c r="J55" t="s">
+        <v>363</v>
+      </c>
+      <c r="K55" t="s">
+        <v>364</v>
+      </c>
+      <c r="L55" t="s">
+        <v>365</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>366</v>
+      </c>
+      <c r="O55" t="s">
+        <v>82</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>367</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>368</v>
+      </c>
+      <c r="J56" t="s">
+        <v>369</v>
+      </c>
+      <c r="K56" t="s">
+        <v>370</v>
+      </c>
+      <c r="L56" t="s">
+        <v>371</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>372</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>374</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>375</v>
+      </c>
+      <c r="J57" t="s">
+        <v>376</v>
+      </c>
+      <c r="K57" t="s">
+        <v>377</v>
+      </c>
+      <c r="L57" t="s">
+        <v>378</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>379</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>381</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>382</v>
+      </c>
+      <c r="J58" t="s">
+        <v>383</v>
+      </c>
+      <c r="K58" t="s">
+        <v>384</v>
+      </c>
+      <c r="L58" t="s">
+        <v>385</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>386</v>
+      </c>
+      <c r="O58" t="s">
+        <v>82</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>387</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>388</v>
+      </c>
+      <c r="J59" t="s">
+        <v>389</v>
+      </c>
+      <c r="K59" t="s">
+        <v>390</v>
+      </c>
+      <c r="L59" t="s">
+        <v>391</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>392</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_612.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_612.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kim S</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Somehow ended up in the not so clean room. Toothpaste on the bathroom wall, had to fix my own toilet and clean the looked like ralf on the floor, plus a white comforter that had a large yellow stain with coffee stains and tears, and the curtains had... something splattered on them, not to mention the ceiling had so much damage that I was afraid if it rained we'd get a free shower....also, just know there's stairs outside no elevator, and it's noisy as heck because there isn't enough insolation from interstate traffic, even if the fan is on.   Oh, but breakfast was good. Basically, not feeling the quality, just a hotel that needs a massive renovation. -.-More</t>
   </si>
   <si>
+    <t>I9150XCthomaso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r533094297-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>I read the reviews before booking this hotel. Somewhat misleading. We were in town for OU/Texas weekend for an unrelated event and finding a hotel was tough. Booked a two bed room, Dad and two daughters. Got a king with sofa bed. All they had. Ok stuff happens. The room was suppose to be no-smoking  found cig butts when I opened the sleeper. 2 towels for 3 people?  A second key to turn on electric in room?  Room door goes directly outside so smokers grouped outside the door smoking and AC pulling it into the room.  Unless you are accustomed to staying at very low end properties, avoid this hotel.  If you do stay at less expensive properties you will probably rate this 4 or 5 stars. I found a different hotel close by for an extra 20 bucks for the second night of our stay. I would have paid a lot more to get out of this hotel.More</t>
   </si>
   <si>
+    <t>Robert M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r464405033-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>RMM60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r380973961-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Michelle M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r371564999-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>kf7ez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r370442468-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>Staff was very friendly and helpful. Room was clean and even included a dining table and desk.  Good safe surroundings.  Pool was clean and inviting.  Ice machine was in an incovient place.  Was a good place to stay.</t>
   </si>
   <si>
+    <t>joycemayo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r353850889-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Daniel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r349827143-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Laura R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r349298016-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>We enjoy this hotel very much.It is clean en very friendly personnel.Breakfast is oke, every day a newspaper.It is lying between two lakes.On the road of 1-30 is espy to go to Dallas.Laura, Amsterdam, Netherlands.</t>
   </si>
   <si>
+    <t>Mike Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r320360642-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>LASH0211</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r313126010-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -369,6 +402,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Diane M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r307979904-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -384,6 +420,9 @@
     <t>We needed an overnight stop near Rowlett TX.  The best thing to say about this hotel is that Tony at the front desk needs a promotion for being so friendly, accommodating and a better emissary than this property deserves.  Musty room.  Bath/Toilet area so small that the door couldn't close past the toilet seat.  Said toilet ran all night and the little coffee pot didn't work.  Very awkward plugs for chargers etc.  The carpet was dingy and the lighting very dim.  The re-furbished Best Western deserved a much better job with some sound-proofing.  Couldn't wait to check out.</t>
   </si>
   <si>
+    <t>AustinSwimParent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r278178999-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t>Clean, quiet, friendly front desk staff. Not hard to find, but the access is a bit tricky to navigate the first time, if you're heading east on Interstate 30. Like the new table lamps with extra electrical outlets..... nice touch if you have several electronic devices in need of charging.</t>
   </si>
   <si>
+    <t>ExcellentAdventures</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r274855785-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -420,6 +462,9 @@
     <t>We spent three nights at the Quality Inn.  The staff at the hotel are helpful, friendly and professional.  The hotel is a two-story property with no elevators.  The rooms open to the parking lot.  We had a ground floor room so we were able to park directly in front of it – very helpful for loading/unloading luggage.  The room was spacious and had a table &amp; chairs in addition to a king-size bed.  There was also a small refrigerator as well as a microwave oven.  The continental breakfast was very good and there was plenty of seating.  Newspapers were available at reception each morning.  As other reviewers have noted, the property is across the highway from the Bass Pro Shop.  There are lots of restaurants in the area as well as shopping in Garland, Rockwall and Mesquite.  We’re looking forward to a future visit at this property.More</t>
   </si>
   <si>
+    <t>Cade7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r272820234-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -438,6 +483,9 @@
     <t>I had trouble printing my boarding pass, and a map back to the rental car office with the lobby computer. Tony, the night manager, spent close to an hour getting both of those done for me. He was patient and professional throughout the entire situation.After the map directions were finally printed, another late night staff member named Lonnie came in. Tony showed him the directions, which included a toll road, and turns on a lot of small streets. Lonnie said that was completely messed up, and gave me directions with only two turns. He got me to the rental car office in about 20 minutes.Both of these gentlemen were class guys. Easy-going and courteous.More</t>
   </si>
   <si>
+    <t>David W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r249573941-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -456,6 +504,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Hunter L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r242047756-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -474,6 +525,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>BekaBnc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r234955964-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -492,6 +546,9 @@
     <t>Husband had a job interview and we took our dogs into Dallas with us. The dog walking area is PHENOMENAL! Right next to the lake with a huge field. We had the king room with a Jacuzzi. The room was a good size. It coulda been cleaner (vacuum around the edges of the carpet) cigarette burn on the carpet and the dust ruffle. The AC was either ON or you had to unplug it. The buttons didn't work to adjust the temp. We just left it on (at 63 degrees I might add) because of the dogs. They loved it, we were pretty chilly outside of the covers though! The Jacuzzi was big &amp; worked very well but was older with obvious tiny cracks in the plastic. Overall it could definitely use some updating but the front desk guy Tony was very nice and the outside of the property made up for it!More</t>
   </si>
   <si>
+    <t>Frankie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r232636748-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -510,6 +567,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Tmoore0910</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r223536569-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -528,6 +588,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>David A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r222111931-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -543,6 +606,9 @@
     <t>Of the hotels to stay in Rockwall, for the value and quality, this was the best place. Staff very helpful. They were very thorough in explaining the process. The card key machine was not working right, so the employee accompanied me to the room and placed a card in the light switch socket and later brought me a room key, all so I didnt have to wait. Employee called me 5 minutes later to check to see if there was anything I needed.</t>
   </si>
   <si>
+    <t>CarrieSuzieQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r215059214-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -564,6 +630,9 @@
     <t>I'll be honest I did not stay at this hotel. What a waste! This location is amazing, right off the lake you COULD enjoy a beautiful long walk along the water's edge. First of all they lost my trip advisor reservation from tingo but still tried to charge me for it.  When pulling around to our room it was like driving into one of those neighborhoods where you just DO NOT FEEL SAFE! My husband's not afraid of anything but he didn't want to stay there.  Additionally, the rooms are very dated, the fixtures and bedding were EXTREMELY CHEAP.  This place gives Best Western a bad name. The manager Barbara Bash is a delightful woman (do yourself a favor Barbra and get a job somewhere else)More</t>
   </si>
   <si>
+    <t>Billy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r213232034-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -582,6 +651,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Vanessa D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r212417768-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -597,6 +669,9 @@
     <t>I really enjoyed staying here with my husband calm neighboor hood. Awesome view to Rockwall Lake. Overall excelent stay. 30 minute trip to Dallas downtown, awesome stores around area and Mall where we did some shopping.</t>
   </si>
   <si>
+    <t>671sharonc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r210677158-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -612,6 +687,9 @@
     <t>We had a wonderful night's stay at this facility. Near to Lake Ray Hubbard, near shopping and dining, and near to the family we came to visit.  Also easy access to the highway.  The room was great! I would highly recommend.</t>
   </si>
   <si>
+    <t>Shannon F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r208633349-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -627,6 +705,9 @@
     <t>The woman at the front desk allowed us to check-in early and was extremely polite and friendly. The bed (we stayed in a non-smoking, pet-friendly king room) was the most comfortable I have ever slept on. There was a storm while we were there and we couldn't hear it at all unless we opened the door. Clean, well-priced, and convientely located, We would def stay here again.</t>
   </si>
   <si>
+    <t>Ann M B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r204230492-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -645,6 +726,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Tamra L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r202654167-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -663,6 +747,9 @@
     <t>When I first booked the room over a month ago, I explicitly explained that we had a dog that is a diabetic and has to go out to pee a lot and is also blind. I requested a room on the bottom floor and whoever booked my reservation (a female during the day shift) said she would put that in the notes. I even called to confirm we still had a reservation 3 days before we arrived and reminded them we had a dog. I did not say anything about a room on the bottom floor but was assured that we would be placed on the back side where the apartments are. That was fine. When we arrived, the desk clerk was a lady in her late 40's to 50's with long dark hair. She explained where our room was and I said, "It's not on the bottom floor?" She told us it was on the second floor. I explained what issues we had with our dog and she still said it was on the second floor then proceeded to explain where the pet area was. I tried to tell her that our dog has to go out very frequently and in the middle of the night and that as soon as his feet hit the grass he would pee. She said we could pick him up and carry him to the pet area (we were in room 228 which...When I first booked the room over a month ago, I explicitly explained that we had a dog that is a diabetic and has to go out to pee a lot and is also blind. I requested a room on the bottom floor and whoever booked my reservation (a female during the day shift) said she would put that in the notes. I even called to confirm we still had a reservation 3 days before we arrived and reminded them we had a dog. I did not say anything about a room on the bottom floor but was assured that we would be placed on the back side where the apartments are. That was fine. When we arrived, the desk clerk was a lady in her late 40's to 50's with long dark hair. She explained where our room was and I said, "It's not on the bottom floor?" She told us it was on the second floor. I explained what issues we had with our dog and she still said it was on the second floor then proceeded to explain where the pet area was. I tried to tell her that our dog has to go out very frequently and in the middle of the night and that as soon as his feet hit the grass he would pee. She said we could pick him up and carry him to the pet area (we were in room 228 which is the last room on the top floor and around the corner from the stairs). Our dog weighs 42lbs. Carrying him up and down the stairs is not an option for us. I have a disability with blood pressure.  She was businessly friendly, but not at all helpful or sympathetic. We really did love the size of the room and the location, but would've been much more satisfied if it had been on any bottom floor. There were other people with dogs on the bottom floor and I dare say they did not meet the special needs that we did. I understand that rooms get filled up and people are placed wherever they can be placed, but I made the reservations over a month ago and specifically stated what I needed. If we ever come back to Rockwall, and we would love to, we would enjoy coming back to this hotel due to the convenience, the price, and we really liked it, but it would be hard to trust that our needs would be met like we had asked. Also, we were up late and were tired and there was no "Do Not Disturb" sign to hang outside the door and we were awaked every morning by 9:40 by housekeeping wanting to clean the room. We didn't ask for that, but were happy it was done after we came back later that day. It would really be nice if they had notes saying who was leaving and who was staying so they didn't wake them up early wanting to clean. There was no need for that when we really needed to sleep.More</t>
   </si>
   <si>
+    <t>cspk63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r199483083-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -681,6 +768,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>rmu4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r199483240-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -693,6 +783,9 @@
     <t>Rooms clean but there were some ants. Noisy highway made it hard for me to sleep. I only had one night there, but would not have stayed longer. Close to lake for fishing, which is good for sportsmen. Glad I was able to drive there in daylight, as directions for motel confusing because of the roads and signs. I know breakfast was available but I had an early flight.</t>
   </si>
   <si>
+    <t>Angela L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r195286677-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -711,6 +804,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>c c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r190818928-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -732,6 +828,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>filtex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r189279151-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -753,6 +852,9 @@
     <t>Stayed a total of 6 nights while visiting the area.  The staff, especially Tony, were helpful &amp; friendly.  The room was spacious with a table &amp; chairs in addition to the usual furniture along the wall.  Beds were double rather than queen, but that was not a problem.  Plenty of towels and a clean bathroom.  Heating/AC unit was quiet and efficient with a digital thermostat which was easy to set and read.  Breakfast was the usual hotel fare and adequate.  The Texas shaped waffle maker was a nice touch.  The location is very easy coming from the east off I-30.  If you are coming from the west, reaching the hotel can be a bit confusing.  From I-30, you take the exit for Bass Pro drive and then go over I-30 via a overpass and then go left to dead-end into the I-30 service road.  At the dead-end stop sign, is a sign indicating the service road is one-way to the right.  However, if you look left, you will see the service road is two-way and you can turn left to reach the hotel.More</t>
   </si>
   <si>
+    <t>mssheilaann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r184928250-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -771,6 +873,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Thomas A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r183712755-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -786,6 +891,9 @@
     <t>Bad mosquitoe problem---was not that clean--very noisy freeway traffic--avoid it like the plaque.It is situated in an area that was desirable for my needs but it just did not measure up to what I was used to My next trip to this area I will spend more money and stay at a better place.</t>
   </si>
   <si>
+    <t>Louis C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r182895214-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -804,6 +912,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Brady K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r181179168-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -822,6 +933,9 @@
     <t>This Best Western is in a pretty good location.  Easy access to I-30 and also to the President George Bush Turnpike (which is a great road to use to avoid Dallas traffic).  It is about a 20 minute drive in good traffic or an hour in bad to downtown Dallas.  The staff was very friendly and great on my arrival and departure.  The room was clean, the bed was very comfortable, and it was a nice area which are the main things I look for when staying in a hotel.  The breakfast was pretty basic but at this price range of hotel that is expected.  The room furnishings are nothing fancy but if your just looking for a great place to sleep for a night or two in the area at a good price, this is a great one to stay at.More</t>
   </si>
   <si>
+    <t>CloggieUsa2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r179651729-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -840,6 +954,9 @@
     <t>The guy who checked us in was TONY,, he was very sweet and very professional, dressed really nice.. he showed me how to use the key card to turn on the lights in the room ( this was a new one for me ), and we loved our clean, room, it smelled wonderful, the room was already nice and cool..Hubby decided to take a walk down to the lake to take a look, he came back very disapointed , he said there was trash and beer cans littering the shores of the lake, how sad.The shower was terrific.. breakfast was nice, we had plenty to eat:-)The WIFI worked just fine too.More</t>
   </si>
   <si>
+    <t>SRobinson2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r175710088-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -858,6 +975,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Cheri W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r171828340-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -873,6 +993,9 @@
     <t>I spent two nights here and found this hotel/room to be comfortable, clean, and staff was helpful as needed.  There is a pool, and lake view! Pet friendly, and I will be sure to stay here when I have to be in Garland/Dallas area next.</t>
   </si>
   <si>
+    <t>Richard F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r171282668-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -888,6 +1011,9 @@
     <t>Good value, clean rooms.  We experienced minor problem with the room getting cool enough, but the A/C was completely off when we checked in at 8 pm and the temps during the day had reached over 100 degrees.  Otherwise, it was a decent room for a reasonable rate.</t>
   </si>
   <si>
+    <t>perkyone1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r170794204-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1032,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Larry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r159025474-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1053,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>nazirites</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r151902374-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1074,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>LauraP232</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r150886438-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1095,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Honey76049</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r135928712-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1116,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>TravelGirl8181</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r133032664-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1140,9 @@
     <t>We stayed here one night on our move from Atlanta to Dallas in May 2012 and everything was great overall. We had one snafu with our reservation and when I arrived to check in, they said they had just released the room and marked us as a no-show, but luckily the room was still available. So make sure you double-check your reservation the day of! Otherwise, the room was very clean and comfortable. The bed was comfortable and had modern white linens (not those old ugly bed covers that some old chains still have...). We stayed with our dog, which we're always weary of doing because most hotels that accept dogs are pretty gross. But you'd never know another dog stayed in this room, it was spotless and smelled fresh and clean. They have a good-sized grassy area for letting your dog do its business, and a big open grassy field next door is great for a quick walk or run around. Breakfast in the morning was typical, loved the Texas-shaped waffle irons. The breakfast room was clean, nicely decorated. The staff were all friendly. Overall, I would definitely recommend this hotel as a great value option, especially for people traveling with dogs.More</t>
   </si>
   <si>
+    <t>Txgirl67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r130061225-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1158,9 @@
     <t>We stayed here 4 nights when a tree branch fell on our power line &amp; started a small fire. The room was good sized with a microwave &amp; mini fridge.  Breakfast was the normal food you get at a hotel.  I had no complaints whatsoever.  Promo's Tex -Mex by Bass Pro shop was really good for dinner.</t>
   </si>
   <si>
+    <t>igitaround27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r119658056-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1179,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>stephanie v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r119501713-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1197,9 @@
     <t>Best Western Lakeview Inn is located in the middle of all of our family located in the Dallas area. We have been staying at this hotel for many years and have always had a wonderful stay. In the past year they have updated the rooms and are up to date and very comfortable. The staff was very helpful with information regarding the State Fair on this trip (They are always very professional and friendly). I would recommend this hotel for all of my family and friends.</t>
   </si>
   <si>
+    <t>retired2010_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r116940995-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1218,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>MikePaloAlto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r115821635-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1242,9 @@
     <t>I just spent five nights here while conducting family business in the area. I have traveled a lot over my career and stayed in every type of hotel from cheap to the very best. So by comparison  I feel compelled to complement this nice, well managed hotel.The Lakeside Hotel is outstanding value for a clean up to date place to stay. My room was a really decent size, the king bed was super, the air conditioning totally up to the job (100 degree days) and the rest of the room and bath was modern and up to date. The maid service was perfect, and the rest of the staff was cheerful and helpful through out my stay.The bonuses are the breakfast each morning, and the really nice pool out  back away from the freeway. I was there on the 25th consecutive day over 100 degrees so the pool was a real plus.Two thumbs up for covering the essentials with really good value.More</t>
   </si>
   <si>
+    <t>cancunbunny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r115374827-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1260,9 @@
     <t>Rooms were clean and beds were comfortable. Pretty good continental breakfast. Pool was nice. Good restaurant across the street were great. Staff was great.</t>
   </si>
   <si>
+    <t>Prayingpam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r100668519-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1281,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>PalmSpringsVisitors</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r52331171-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1305,9 @@
     <t>We were on a road trip from Central California to Texas and Oklahoma for the Christmas holidays and stayed at the Best Western Lakeview Motel while visiting relatives in Rowlett.  Trip Advisor reviews had been very positive about the motel, and we agreed with them 100%.    It is well located just off a major highway and easy to find.  I was concerned about highway noise, but once in the room it was very quiet.  The room was huge, with a king bed and table and chairs.  It could have held a loveseat or easy chair without a problem (hint to the manager!).  The bed was very comfortable, which we appreciated after a long drive.  There was a nice breakfast, with hot items along with cereal, toast, and danish.  The clerks were very friendly and helpful with local information. We would definitely stay there again.More</t>
   </si>
   <si>
+    <t>Ann R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r42057361-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1329,9 @@
     <t>The nice young man on the desk took care of our check-in professionally and gave us an excellent suggestion for dinner.  We wanted a nice place but did not want to drive back and forth on the interstate.  The seafood restaurant INSIDE The Bass Pro Shop was a surprise: moist fresh seafood at a fair price in a restful setting - and it was so easy to get to.  The room was clean and had a table with chairs, a microwave, and a small fridge.  The TV was large enough to enjoy the picture.  We used a coupon from one of the travel magazines you can get at the state welcome station and the two queen bedded room with hot breakfast was $49 - a good deal.  The motel is right on the lake and we enjoyed walking around the grounds to see the boaters.More</t>
   </si>
   <si>
+    <t>amandakgrimes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r31260186-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1348,9 @@
   </si>
   <si>
     <t>May 2009</t>
+  </si>
+  <si>
+    <t>Sewtex</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r5944706-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -1702,43 +1876,47 @@
       <c r="A2" t="n">
         <v>32276</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>15668</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1752,50 +1930,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32276</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>173877</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1813,50 +1995,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32276</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>7035</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1876,50 +2062,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32276</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>72556</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1939,50 +2129,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32276</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>3843</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2002,50 +2196,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32276</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>16792</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2065,50 +2263,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32276</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>173878</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2126,50 +2328,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32276</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2183,50 +2389,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32276</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>8052</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2246,50 +2456,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32276</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>15270</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2303,50 +2517,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32276</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>173879</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2360,41 +2578,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32276</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>4142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -2413,41 +2635,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32276</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>173880</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -2466,50 +2692,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32276</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>173881</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2527,50 +2757,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32276</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>173882</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2590,50 +2824,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32276</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>4279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2651,50 +2889,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32276</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>173883</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2716,41 +2958,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32276</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>173884</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -2779,50 +3025,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32276</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>37686</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2846,50 +3096,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32276</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>173885</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2907,50 +3161,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32276</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2974,50 +3232,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>32276</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>173886</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3031,50 +3293,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32276</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>15136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3098,50 +3364,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32276</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3165,50 +3435,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32276</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>173887</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3232,50 +3506,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32276</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>68620</v>
+      </c>
+      <c r="C27" t="s">
+        <v>223</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="J27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3299,50 +3577,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32276</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>173888</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3366,50 +3648,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32276</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>173889</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3433,50 +3719,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32276</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>173890</v>
+      </c>
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="J30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="K30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3500,50 +3790,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32276</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>173891</v>
+      </c>
+      <c r="C31" t="s">
+        <v>250</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="J31" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3567,50 +3861,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32276</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>10872</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3634,50 +3932,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32276</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>173892</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3701,50 +4003,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32276</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>173893</v>
+      </c>
+      <c r="C34" t="s">
+        <v>270</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="J34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3768,50 +4074,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32276</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>173894</v>
+      </c>
+      <c r="C35" t="s">
+        <v>278</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="J35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3835,50 +4145,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32276</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>64905</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -3902,50 +4216,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>32276</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>7321</v>
+      </c>
+      <c r="C37" t="s">
+        <v>291</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="J37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3969,50 +4287,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>32276</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>36475</v>
+      </c>
+      <c r="C38" t="s">
+        <v>298</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="J38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="K38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="O38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4036,50 +4358,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>32276</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>173895</v>
+      </c>
+      <c r="C39" t="s">
+        <v>305</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="K39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4103,50 +4429,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>32276</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>173896</v>
+      </c>
+      <c r="C40" t="s">
+        <v>312</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="J40" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="K40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4170,50 +4500,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>32276</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>59573</v>
+      </c>
+      <c r="C41" t="s">
+        <v>319</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4237,50 +4571,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>32276</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>11210</v>
+      </c>
+      <c r="C42" t="s">
+        <v>325</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4304,50 +4642,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>32276</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>173897</v>
+      </c>
+      <c r="C43" t="s">
+        <v>331</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="J43" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4371,50 +4713,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>32276</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>3975</v>
+      </c>
+      <c r="C44" t="s">
+        <v>338</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="J44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="K44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4438,50 +4784,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>32276</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>173898</v>
+      </c>
+      <c r="C45" t="s">
+        <v>345</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="J45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="O45" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4505,50 +4855,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>32276</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>173899</v>
+      </c>
+      <c r="C46" t="s">
+        <v>352</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="J46" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="K46" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4572,50 +4926,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>32276</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>173900</v>
+      </c>
+      <c r="C47" t="s">
+        <v>359</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="J47" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4631,50 +4989,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>32276</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>173901</v>
+      </c>
+      <c r="C48" t="s">
+        <v>366</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="J48" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="K48" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4698,50 +5060,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>32276</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>173902</v>
+      </c>
+      <c r="C49" t="s">
+        <v>374</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="J49" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="K49" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -4765,50 +5131,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>32276</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>173903</v>
+      </c>
+      <c r="C50" t="s">
+        <v>380</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="J50" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="K50" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4832,50 +5202,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>32276</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>173904</v>
+      </c>
+      <c r="C51" t="s">
+        <v>387</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="J51" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="K51" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -4899,50 +5273,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>32276</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>173905</v>
+      </c>
+      <c r="C52" t="s">
+        <v>393</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="J52" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="K52" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="O52" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4962,50 +5340,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>32276</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>173906</v>
+      </c>
+      <c r="C53" t="s">
+        <v>400</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="J53" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="K53" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="L53" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5025,50 +5407,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>32276</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>173907</v>
+      </c>
+      <c r="C54" t="s">
+        <v>408</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="J54" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="K54" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5088,50 +5474,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>32276</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>173908</v>
+      </c>
+      <c r="C55" t="s">
+        <v>414</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="J55" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="K55" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="O55" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5155,50 +5545,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>32276</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>173909</v>
+      </c>
+      <c r="C56" t="s">
+        <v>421</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="J56" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="K56" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="L56" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5222,50 +5616,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>32276</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>13498</v>
+      </c>
+      <c r="C57" t="s">
+        <v>429</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="J57" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="K57" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="L57" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="O57" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5289,50 +5687,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>32276</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>173910</v>
+      </c>
+      <c r="C58" t="s">
+        <v>437</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="J58" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="K58" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="L58" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="O58" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5356,50 +5758,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>32276</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>173911</v>
+      </c>
+      <c r="C59" t="s">
+        <v>444</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="J59" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="K59" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5423,7 +5829,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_612.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_612.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="624">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Kim S</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r589854645-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>55884</t>
+  </si>
+  <si>
+    <t>73528</t>
+  </si>
+  <si>
+    <t>589854645</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Friendly and Accommodating</t>
+  </si>
+  <si>
+    <t>We stayed here for a week and all of our needs were met.  Our room was clean and had a refrigerator, microwave which was nice.  Breakfast was always hot and fresh.  The staff were so friendly and have worked here for over 10-15 years. Anything we needed or questions asked were taken care of instantly.  The housekeeping team was excellent and friendly.It is an older place but meets every need we had and was economical.  All rooms are outside doors.  We were on the second floor and there are no elevators.  We would return if ever needed!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r583971853-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>583971853</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>No THAT bad!</t>
+  </si>
+  <si>
+    <t>I had to make a quick stop here to get some rest on the way to my next stop. The front desk personnel was incredibly nice. This was my first stop upon returning to TX and boy did that feel good. Texas friendly is a thing. Front desk checked me in and gave me directions to get a quick bite even though it was late and the lady was so nice and genuinely seemed like she cared. The room wasn't the best but it was good enough to catch some sleep and grab a shower. Breakfast the next morning was ok. The grounds seemed safe and the lobby was nice and clean. Was my room a beautiful suite with an amazing view? of course not, I didn't pay for that room. I paid to get a room that was clean enough to sleep in and shower. (Yes, I wore flip flops because the carpet looked like it had been there for a while). The continental breakfast is just extra. HA! If you want something a little fancier, keep driving and you'll find it. The rooms weren't the best but when the people working there are caring, problem solvers and treat you nice, that is a reflection of the positive environment they work in and they get a pass for the not so impressive rooms. The location is perfect if you like having quick access to the interstate. Oh, if you...I had to make a quick stop here to get some rest on the way to my next stop. The front desk personnel was incredibly nice. This was my first stop upon returning to TX and boy did that feel good. Texas friendly is a thing. Front desk checked me in and gave me directions to get a quick bite even though it was late and the lady was so nice and genuinely seemed like she cared. The room wasn't the best but it was good enough to catch some sleep and grab a shower. Breakfast the next morning was ok. The grounds seemed safe and the lobby was nice and clean. Was my room a beautiful suite with an amazing view? of course not, I didn't pay for that room. I paid to get a room that was clean enough to sleep in and shower. (Yes, I wore flip flops because the carpet looked like it had been there for a while). The continental breakfast is just extra. HA! If you want something a little fancier, keep driving and you'll find it. The rooms weren't the best but when the people working there are caring, problem solvers and treat you nice, that is a reflection of the positive environment they work in and they get a pass for the not so impressive rooms. The location is perfect if you like having quick access to the interstate. Oh, if you don't know about using those light keys that are becoming more common these days (it's a Euro thing) you'll learn here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I had to make a quick stop here to get some rest on the way to my next stop. The front desk personnel was incredibly nice. This was my first stop upon returning to TX and boy did that feel good. Texas friendly is a thing. Front desk checked me in and gave me directions to get a quick bite even though it was late and the lady was so nice and genuinely seemed like she cared. The room wasn't the best but it was good enough to catch some sleep and grab a shower. Breakfast the next morning was ok. The grounds seemed safe and the lobby was nice and clean. Was my room a beautiful suite with an amazing view? of course not, I didn't pay for that room. I paid to get a room that was clean enough to sleep in and shower. (Yes, I wore flip flops because the carpet looked like it had been there for a while). The continental breakfast is just extra. HA! If you want something a little fancier, keep driving and you'll find it. The rooms weren't the best but when the people working there are caring, problem solvers and treat you nice, that is a reflection of the positive environment they work in and they get a pass for the not so impressive rooms. The location is perfect if you like having quick access to the interstate. Oh, if you...I had to make a quick stop here to get some rest on the way to my next stop. The front desk personnel was incredibly nice. This was my first stop upon returning to TX and boy did that feel good. Texas friendly is a thing. Front desk checked me in and gave me directions to get a quick bite even though it was late and the lady was so nice and genuinely seemed like she cared. The room wasn't the best but it was good enough to catch some sleep and grab a shower. Breakfast the next morning was ok. The grounds seemed safe and the lobby was nice and clean. Was my room a beautiful suite with an amazing view? of course not, I didn't pay for that room. I paid to get a room that was clean enough to sleep in and shower. (Yes, I wore flip flops because the carpet looked like it had been there for a while). The continental breakfast is just extra. HA! If you want something a little fancier, keep driving and you'll find it. The rooms weren't the best but when the people working there are caring, problem solvers and treat you nice, that is a reflection of the positive environment they work in and they get a pass for the not so impressive rooms. The location is perfect if you like having quick access to the interstate. Oh, if you don't know about using those light keys that are becoming more common these days (it's a Euro thing) you'll learn here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r570391862-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>570391862</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Pretty good all around</t>
+  </si>
+  <si>
+    <t>Recently been to many hotels for work. I thought this was pretty good in comparison. Clean and the ft desk people were helpfull and polite. Bed was comfortable and room had it all. Microwave, hairdryer,coffee maker,iron and refrigerator. Enjoyed my stay. No hot tub tho.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dilip P, General Manager at Quality Inn &amp; Suites Garland - East Dallas, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Recently been to many hotels for work. I thought this was pretty good in comparison. Clean and the ft desk people were helpfull and polite. Bed was comfortable and room had it all. Microwave, hairdryer,coffee maker,iron and refrigerator. Enjoyed my stay. No hot tub tho.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r558926597-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
-    <t>55884</t>
-  </si>
-  <si>
-    <t>73528</t>
-  </si>
-  <si>
     <t>558926597</t>
   </si>
   <si>
@@ -186,9 +252,6 @@
     <t>Somehow ended up in the not so clean room. Toothpaste on the bathroom wall, had to fix my own toilet and clean the looked like ralf on the floor, plus a white comforter that had a large yellow stain with coffee stains and tears, and the curtains had... something splattered on them, not to mention the ceiling had so much damage that I was afraid if it rained we'd get a free shower....also, just know there's stairs outside no elevator, and it's noisy as heck because there isn't enough insolation from interstate traffic, even if the fan is on.   Oh, but breakfast was good. Basically, not feeling the quality, just a hotel that needs a massive renovation. -.-More</t>
   </si>
   <si>
-    <t>I9150XCthomaso</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r533094297-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -210,9 +273,6 @@
     <t>I read the reviews before booking this hotel. Somewhat misleading. We were in town for OU/Texas weekend for an unrelated event and finding a hotel was tough. Booked a two bed room, Dad and two daughters. Got a king with sofa bed. All they had. Ok stuff happens. The room was suppose to be no-smoking  found cig butts when I opened the sleeper. 2 towels for 3 people?  A second key to turn on electric in room?  Room door goes directly outside so smokers grouped outside the door smoking and AC pulling it into the room.  Unless you are accustomed to staying at very low end properties, avoid this hotel.  If you do stay at less expensive properties you will probably rate this 4 or 5 stars. I found a different hotel close by for an extra 20 bucks for the second night of our stay. I would have paid a lot more to get out of this hotel.More</t>
   </si>
   <si>
-    <t>Robert M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r464405033-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -234,7 +294,43 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>RMM60</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r459161386-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>459161386</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Good Location, Decent price</t>
+  </si>
+  <si>
+    <t>Just needed to stay one night in Garland for a cheer leading competition. This hotel was the cheapest near the Bush Toll Hwy. Staff was friendly, price was decent, rooms were adequate and clean and the beds were actually comfortable. The only draw back was the it is literally near the interstate so the road noise could be heard, but as long as the A/C was on, you really could not hear it that much.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r420014549-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>420014549</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only stayed for a night but it was great and made for a lovely rest from being on the road. Very comfortable and clean. Perfect shower pressure. Cold AC. Friendly and helpful staff. Food stops located on the other side of the road. Very Reasonable price for a twin double room. Would definitely recommend it. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r380973961-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -255,12 +351,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Michelle M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r371564999-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -279,12 +369,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>kf7ez</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r370442468-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -300,7 +384,40 @@
     <t>Staff was very friendly and helpful. Room was clean and even included a dining table and desk.  Good safe surroundings.  Pool was clean and inviting.  Ice machine was in an incovient place.  Was a good place to stay.</t>
   </si>
   <si>
-    <t>joycemayo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r364550413-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>364550413</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Business turned great</t>
+  </si>
+  <si>
+    <t>Stayed here on a business trip! Great motel! Right next to the lake! Easy access to the freeway! Bass Pro Shop and Restaurants are right across the way. They had everything it was very nice! Coffee in the room, hair dryer! Hot breakfast in the morning! Nice table and desk also in the room with a king size bed! Looks upgraded! The check in staff was top-notch! Very nice knowledgeable!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r357346046-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>357346046</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Doctor's Appointment</t>
+  </si>
+  <si>
+    <t>The staff was really friendly, the bed was a little hard but comfortable, the room was very clean and comfortable. The only thing I didn't like was all the mosquitos (we were right by the water) and the shower curtain... It needed a curved curtain rod instead of a straight one. But that is the only complaints I have!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r353850889-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -318,12 +435,6 @@
     <t>We have stayed here for the last 8 years, our daughter lives in the condo's behind the Motel.. Tony has always made us feel like family. Being from N.Y. we are well aware of the staff members at Hotel's. You have a prize with Tony,,, Hope he will continue with his great personality, Love his smile and the way he treats us. Ray &amp; Joyce Mayo</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t>Daniel G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r349827143-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -342,9 +453,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Laura R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r349298016-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -360,7 +468,37 @@
     <t>We enjoy this hotel very much.It is clean en very friendly personnel.Breakfast is oke, every day a newspaper.It is lying between two lakes.On the road of 1-30 is espy to go to Dallas.Laura, Amsterdam, Netherlands.</t>
   </si>
   <si>
-    <t>Mike Y</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r345571894-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>345571894</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>2 star hotel with (-2) cleanliness.</t>
+  </si>
+  <si>
+    <t>Got the room on priceline, so paid $15 less than advertised rack rate.  The hotel is right off the interstate, so the traffic noise was expected.  Our room was 2nd floor up, and is entered from the outside, which is convenient for some, and the hotel pictures show this, so that was also expected.  The hotel is fairly new, and at a 2 star, we knew "just the basics" would be provided; small room, noisy heat and air unit, tiny refrigerator that runs loudly, all expected.  Our issue is with the lack of cleanliness, which I am attaching pictures of.  There was urine left on the toilet seat, the tub was filthy, there were cheesies on the floor, the carpet was crunchy to walk on, and basically visible dirt in the corners.  Why did we stay?  It was late, the room was paid for and the bedsheets were obviously brand new.  Why didn't we go to the front desk and complain?  What for?  Its not her issue, not her job, she was doing her job.  We took care of things ourselves, stayed the night, and left.  They do have a breakfast, which we did not partake of, so is not included in this review.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got the room on priceline, so paid $15 less than advertised rack rate.  The hotel is right off the interstate, so the traffic noise was expected.  Our room was 2nd floor up, and is entered from the outside, which is convenient for some, and the hotel pictures show this, so that was also expected.  The hotel is fairly new, and at a 2 star, we knew "just the basics" would be provided; small room, noisy heat and air unit, tiny refrigerator that runs loudly, all expected.  Our issue is with the lack of cleanliness, which I am attaching pictures of.  There was urine left on the toilet seat, the tub was filthy, there were cheesies on the floor, the carpet was crunchy to walk on, and basically visible dirt in the corners.  Why did we stay?  It was late, the room was paid for and the bedsheets were obviously brand new.  Why didn't we go to the front desk and complain?  What for?  Its not her issue, not her job, she was doing her job.  We took care of things ourselves, stayed the night, and left.  They do have a breakfast, which we did not partake of, so is not included in this review.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r344647121-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>344647121</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, Great Customer Service</t>
+  </si>
+  <si>
+    <t>I'm on my third week here and Tony at the front desk has made it a real pleasure, going above and beyond his duties, he really knows how to make you feel at home when you aren't. The view of the lake helps a lot too. It's clean, comfortable and affordable, customer service with a real smile, would recommend to anyone long or shot term.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r320360642-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -381,9 +519,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>LASH0211</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r313126010-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -402,9 +537,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Diane M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r307979904-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -420,7 +552,37 @@
     <t>We needed an overnight stop near Rowlett TX.  The best thing to say about this hotel is that Tony at the front desk needs a promotion for being so friendly, accommodating and a better emissary than this property deserves.  Musty room.  Bath/Toilet area so small that the door couldn't close past the toilet seat.  Said toilet ran all night and the little coffee pot didn't work.  Very awkward plugs for chargers etc.  The carpet was dingy and the lighting very dim.  The re-furbished Best Western deserved a much better job with some sound-proofing.  Couldn't wait to check out.</t>
   </si>
   <si>
-    <t>AustinSwimParent</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r283846914-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>283846914</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel kind of pleasantly surprised me! They were very clean and the staff were super nice. Make sure you specify on whatever site you're booking thru on the bed size or you'll end up with 2 twin size beds (that's booking online for ya). I didn't find any bugs/stains/smells... anything, which is very surprising for a hotel. They're doing a great job! Only down fall, the coffee pots suck. It's a one cup brew system that takes about 5 minutes per cup to brew. To the staff: keep putting all them pillows on the bed! People love extra pillows. </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r283732737-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>283732737</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Very Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We were in town for a family wedding and stayed for one night.  Two other family members also stayed here.  Right off the freeway with easy access to the area.  We found the property to be well maintained.  Grounds and pool were clean.  A dog walk is available near the pool area and separated by hedges.  The room was clean and well kept.  We had no problems with the Wi-Fi for the little we used it.  The staff was friendly and helpful.  One of the better hotels in this chain we have stayed in. We would definitely stay here again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r278178999-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -438,9 +600,6 @@
     <t>Clean, quiet, friendly front desk staff. Not hard to find, but the access is a bit tricky to navigate the first time, if you're heading east on Interstate 30. Like the new table lamps with extra electrical outlets..... nice touch if you have several electronic devices in need of charging.</t>
   </si>
   <si>
-    <t>ExcellentAdventures</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r274855785-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -462,9 +621,6 @@
     <t>We spent three nights at the Quality Inn.  The staff at the hotel are helpful, friendly and professional.  The hotel is a two-story property with no elevators.  The rooms open to the parking lot.  We had a ground floor room so we were able to park directly in front of it – very helpful for loading/unloading luggage.  The room was spacious and had a table &amp; chairs in addition to a king-size bed.  There was also a small refrigerator as well as a microwave oven.  The continental breakfast was very good and there was plenty of seating.  Newspapers were available at reception each morning.  As other reviewers have noted, the property is across the highway from the Bass Pro Shop.  There are lots of restaurants in the area as well as shopping in Garland, Rockwall and Mesquite.  We’re looking forward to a future visit at this property.More</t>
   </si>
   <si>
-    <t>Cade7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r272820234-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -483,7 +639,37 @@
     <t>I had trouble printing my boarding pass, and a map back to the rental car office with the lobby computer. Tony, the night manager, spent close to an hour getting both of those done for me. He was patient and professional throughout the entire situation.After the map directions were finally printed, another late night staff member named Lonnie came in. Tony showed him the directions, which included a toll road, and turns on a lot of small streets. Lonnie said that was completely messed up, and gave me directions with only two turns. He got me to the rental car office in about 20 minutes.Both of these gentlemen were class guys. Easy-going and courteous.More</t>
   </si>
   <si>
-    <t>David W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r262362543-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>262362543</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>We decided to come to Dallas on a spur of the moment trip. Got at the hotel at 1 in the morning. Our room was nice &amp; the bed super comfortable. View from the hotel is nice. The shower was heavenly. Didn't try breakfast because we decided to sleep in a little. All the staff was nice &amp; courteous. Will come back for sure.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r258309456-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>258309456</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Nice Place to stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 days to attend my nephews wedding. I found the staff very helpfull and friendly. The rooms are clean, comfortable,and quiet being so near the interstate.It is conivently locatated to every attraction in the area. The contential breakfeast is what you would expect. The only draw back (if you can call it that) is gettting back to the hotel from the west. It is really easy as soon as you learn the turns. Over all my stay was great.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r249573941-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -504,9 +690,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Hunter L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r242047756-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -525,9 +708,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>BekaBnc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r234955964-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -546,7 +726,37 @@
     <t>Husband had a job interview and we took our dogs into Dallas with us. The dog walking area is PHENOMENAL! Right next to the lake with a huge field. We had the king room with a Jacuzzi. The room was a good size. It coulda been cleaner (vacuum around the edges of the carpet) cigarette burn on the carpet and the dust ruffle. The AC was either ON or you had to unplug it. The buttons didn't work to adjust the temp. We just left it on (at 63 degrees I might add) because of the dogs. They loved it, we were pretty chilly outside of the covers though! The Jacuzzi was big &amp; worked very well but was older with obvious tiny cracks in the plastic. Overall it could definitely use some updating but the front desk guy Tony was very nice and the outside of the property made up for it!More</t>
   </si>
   <si>
-    <t>Frankie B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r234821744-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>234821744</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Conveniently Located</t>
+  </si>
+  <si>
+    <t>We always stay here when we visit our daughter.  It is very convenient to where she lives in Rowlett.  All we do is sleep here.  We are not there long enough to use the internet or to eat breakfast as we leave early and come back late.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r234476599-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>234476599</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>I stayed here while staying with family.  I found it clean and comfortable.  Only problem I had was the directions weren't clear and I had to drive around to find it.  My dog was with me and I was delighted to see they have a special area for our four legged family.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r232636748-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -564,12 +774,6 @@
     <t>Great Place I will stay there again if I am in that area and would recommend it . If you are in that area give it a try. Not a high dollar motel but the staff and quality is high dollar. That is all I have to say about that!!!</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
-    <t>Tmoore0910</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r223536569-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -588,9 +792,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>David A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r222111931-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -606,7 +807,37 @@
     <t>Of the hotels to stay in Rockwall, for the value and quality, this was the best place. Staff very helpful. They were very thorough in explaining the process. The card key machine was not working right, so the employee accompanied me to the room and placed a card in the light switch socket and later brought me a room key, all so I didnt have to wait. Employee called me 5 minutes later to check to see if there was anything I needed.</t>
   </si>
   <si>
-    <t>CarrieSuzieQ</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r220785460-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>220785460</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>Good clean and comfortable for a short stay when visiting friends or family in the Dallas area. Well kept, though not recently remodeled. But comfortable and did not appear rundown or tired at all. No fan in the bathroom. Good value for the price. W/e breakfast they ran out of yogurt, a staple for me. But there were plenty of other options at the standard included breakfast. Very nice front desk staff. Although knowledge of local area could be improved. No one knew where the local Catholic church was or service times. I did find it online and then brought thechurch bulletin back to them for future patrons info.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r215473244-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>215473244</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>GOOD VALUE</t>
+  </si>
+  <si>
+    <t>Was told when I checked in, that I got a better deal going through Trip-Advisor online, rather than just walking into the hotel. I have stayed here before and never had a problem. Very nice and laid back. Security was making his rounds when I stepped outside to talk on my phone. Pool was clean. Just don't forget your room key when getting ice from the machine!!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r215059214-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -624,15 +855,9 @@
     <t>I'll be honest I did not stay at this hotel. What a waste! This location is amazing, right off the lake you COULD enjoy a beautiful long walk along the water's edge. First of all they lost my trip advisor reservation from tingo but still tried to charge me for it.  When pulling around to our room it was like driving into one of those neighborhoods where you just DO NOT FEEL SAFE! My husband's not afraid of anything but he didn't want to stay there.  Additionally, the rooms are very dated, the fixtures and bedding were EXTREMELY CHEAP.  This place gives Best Western a bad name. The manager Barbara Bash is a delightful woman (do yourself a favor Barbra and get a job somewhere else)MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>I'll be honest I did not stay at this hotel. What a waste! This location is amazing, right off the lake you COULD enjoy a beautiful long walk along the water's edge. First of all they lost my trip advisor reservation from tingo but still tried to charge me for it.  When pulling around to our room it was like driving into one of those neighborhoods where you just DO NOT FEEL SAFE! My husband's not afraid of anything but he didn't want to stay there.  Additionally, the rooms are very dated, the fixtures and bedding were EXTREMELY CHEAP.  This place gives Best Western a bad name. The manager Barbara Bash is a delightful woman (do yourself a favor Barbra and get a job somewhere else)More</t>
   </si>
   <si>
-    <t>Billy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r213232034-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -651,9 +876,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Vanessa D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r212417768-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -669,7 +891,37 @@
     <t>I really enjoyed staying here with my husband calm neighboor hood. Awesome view to Rockwall Lake. Overall excelent stay. 30 minute trip to Dallas downtown, awesome stores around area and Mall where we did some shopping.</t>
   </si>
   <si>
-    <t>671sharonc</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r211785158-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>211785158</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Good time</t>
+  </si>
+  <si>
+    <t>Me and my boys had a guys weekend and went to Bass Pro Shops and some other places and just chilled out for the weekend. Had a great time at the hotel pool and did a little fishing at the lake behind the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r211031491-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>211031491</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Perfectly fine</t>
+  </si>
+  <si>
+    <t>I stayed here with my grandson before we continued the rest of our trip. It was clean, nothing extravagant, but nice enough. The air worked fine, there weren't any bad smells or bed bugs. The parking was a little tight, but not a big issue. When we checked in the desk clerk was having some problem getting my card or ID read by the machine and tried to make up for it by playing peek a boo with my 4 yr old grandson, who did not care for it and while he was trying to be nice, it was a little creepy. Breakfast was acceptable, nothing extraordinary, but I would stay there again. Especially since I got a good deal directly from Best Western.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my grandson before we continued the rest of our trip. It was clean, nothing extravagant, but nice enough. The air worked fine, there weren't any bad smells or bed bugs. The parking was a little tight, but not a big issue. When we checked in the desk clerk was having some problem getting my card or ID read by the machine and tried to make up for it by playing peek a boo with my 4 yr old grandson, who did not care for it and while he was trying to be nice, it was a little creepy. Breakfast was acceptable, nothing extraordinary, but I would stay there again. Especially since I got a good deal directly from Best Western.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r210677158-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -687,9 +939,6 @@
     <t>We had a wonderful night's stay at this facility. Near to Lake Ray Hubbard, near shopping and dining, and near to the family we came to visit.  Also easy access to the highway.  The room was great! I would highly recommend.</t>
   </si>
   <si>
-    <t>Shannon F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r208633349-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -705,9 +954,6 @@
     <t>The woman at the front desk allowed us to check-in early and was extremely polite and friendly. The bed (we stayed in a non-smoking, pet-friendly king room) was the most comfortable I have ever slept on. There was a storm while we were there and we couldn't hear it at all unless we opened the door. Clean, well-priced, and convientely located, We would def stay here again.</t>
   </si>
   <si>
-    <t>Ann M B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r204230492-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -726,7 +972,34 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Tamra L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r203408418-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>203408418</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Best Western Lakeview</t>
+  </si>
+  <si>
+    <t>Great place to stay - VERY easy to find. Nice area to take a walk, pets allowed and we did not hear one at all. Everyone is very friendly and personable. Would stay here again - great value for the cost.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r202508512-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>202508512</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Good location - near Bass Pro - right off highway</t>
+  </si>
+  <si>
+    <t>Hotel needed upgrading.  Poor area with apartments right behind this hotel.  Breakfast not much - the usual waffles/fruit etc.  For the price I guess it was ok.  Pool needed cleaning.  Nice restaurants across the road.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r202654167-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -747,9 +1020,6 @@
     <t>When I first booked the room over a month ago, I explicitly explained that we had a dog that is a diabetic and has to go out to pee a lot and is also blind. I requested a room on the bottom floor and whoever booked my reservation (a female during the day shift) said she would put that in the notes. I even called to confirm we still had a reservation 3 days before we arrived and reminded them we had a dog. I did not say anything about a room on the bottom floor but was assured that we would be placed on the back side where the apartments are. That was fine. When we arrived, the desk clerk was a lady in her late 40's to 50's with long dark hair. She explained where our room was and I said, "It's not on the bottom floor?" She told us it was on the second floor. I explained what issues we had with our dog and she still said it was on the second floor then proceeded to explain where the pet area was. I tried to tell her that our dog has to go out very frequently and in the middle of the night and that as soon as his feet hit the grass he would pee. She said we could pick him up and carry him to the pet area (we were in room 228 which...When I first booked the room over a month ago, I explicitly explained that we had a dog that is a diabetic and has to go out to pee a lot and is also blind. I requested a room on the bottom floor and whoever booked my reservation (a female during the day shift) said she would put that in the notes. I even called to confirm we still had a reservation 3 days before we arrived and reminded them we had a dog. I did not say anything about a room on the bottom floor but was assured that we would be placed on the back side where the apartments are. That was fine. When we arrived, the desk clerk was a lady in her late 40's to 50's with long dark hair. She explained where our room was and I said, "It's not on the bottom floor?" She told us it was on the second floor. I explained what issues we had with our dog and she still said it was on the second floor then proceeded to explain where the pet area was. I tried to tell her that our dog has to go out very frequently and in the middle of the night and that as soon as his feet hit the grass he would pee. She said we could pick him up and carry him to the pet area (we were in room 228 which is the last room on the top floor and around the corner from the stairs). Our dog weighs 42lbs. Carrying him up and down the stairs is not an option for us. I have a disability with blood pressure.  She was businessly friendly, but not at all helpful or sympathetic. We really did love the size of the room and the location, but would've been much more satisfied if it had been on any bottom floor. There were other people with dogs on the bottom floor and I dare say they did not meet the special needs that we did. I understand that rooms get filled up and people are placed wherever they can be placed, but I made the reservations over a month ago and specifically stated what I needed. If we ever come back to Rockwall, and we would love to, we would enjoy coming back to this hotel due to the convenience, the price, and we really liked it, but it would be hard to trust that our needs would be met like we had asked. Also, we were up late and were tired and there was no "Do Not Disturb" sign to hang outside the door and we were awaked every morning by 9:40 by housekeeping wanting to clean the room. We didn't ask for that, but were happy it was done after we came back later that day. It would really be nice if they had notes saying who was leaving and who was staying so they didn't wake them up early wanting to clean. There was no need for that when we really needed to sleep.More</t>
   </si>
   <si>
-    <t>cspk63</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r199483083-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -768,9 +1038,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>rmu4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r199483240-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -783,7 +1050,40 @@
     <t>Rooms clean but there were some ants. Noisy highway made it hard for me to sleep. I only had one night there, but would not have stayed longer. Close to lake for fishing, which is good for sportsmen. Glad I was able to drive there in daylight, as directions for motel confusing because of the roads and signs. I know breakfast was available but I had an early flight.</t>
   </si>
   <si>
-    <t>Angela L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r197652648-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>197652648</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Decent hotel with good service</t>
+  </si>
+  <si>
+    <t>For an inexpensive stay, this motel provided a satisfactory night's rest and had decent amenities.  The facilities were reasonable and not terribly out of date.  The area immediately around the motel and the adjacent apartment complex both seemed a bit sketchy when we arrived after dark, but we didn't have a problem with anyone.  The east side of the hotel (surrounded by an empty field and with a view of the lake) seemed much safer and better-lit than the west side.  The parking lot and rooms on the west side were much darker and much too close to the apartments next door.  Overall, our experience was good.  The managers and employees were friendly and treated us like family.  The breakfast was good and fresh.  You shouldn't expect 5-star luxury, but not a bad stay for what it is!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>For an inexpensive stay, this motel provided a satisfactory night's rest and had decent amenities.  The facilities were reasonable and not terribly out of date.  The area immediately around the motel and the adjacent apartment complex both seemed a bit sketchy when we arrived after dark, but we didn't have a problem with anyone.  The east side of the hotel (surrounded by an empty field and with a view of the lake) seemed much safer and better-lit than the west side.  The parking lot and rooms on the west side were much darker and much too close to the apartments next door.  Overall, our experience was good.  The managers and employees were friendly and treated us like family.  The breakfast was good and fresh.  You shouldn't expect 5-star luxury, but not a bad stay for what it is!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r196704440-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>196704440</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>This is a very clean hotel. The staff was very friendly. I never needed to ask for anything. We had a very comfortable stay. It was also a quiet location. Very close to a Bass Pro Shop. Rockwall is just a few miles away so it's very close to great dining and shopping. Also very close to the lake.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r195286677-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -804,9 +1104,6 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>c c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r190818928-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -825,12 +1122,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>filtex</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r189279151-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -852,7 +1143,40 @@
     <t>Stayed a total of 6 nights while visiting the area.  The staff, especially Tony, were helpful &amp; friendly.  The room was spacious with a table &amp; chairs in addition to the usual furniture along the wall.  Beds were double rather than queen, but that was not a problem.  Plenty of towels and a clean bathroom.  Heating/AC unit was quiet and efficient with a digital thermostat which was easy to set and read.  Breakfast was the usual hotel fare and adequate.  The Texas shaped waffle maker was a nice touch.  The location is very easy coming from the east off I-30.  If you are coming from the west, reaching the hotel can be a bit confusing.  From I-30, you take the exit for Bass Pro drive and then go over I-30 via a overpass and then go left to dead-end into the I-30 service road.  At the dead-end stop sign, is a sign indicating the service road is one-way to the right.  However, if you look left, you will see the service road is two-way and you can turn left to reach the hotel.More</t>
   </si>
   <si>
-    <t>mssheilaann</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r189087303-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>189087303</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>A decent room for the price</t>
+  </si>
+  <si>
+    <t>Travelling from the Midwest to San Antonio this is always our stopping spot to spend the night.  Needing just a place to sleep and get up and go, it is perfect.  Clean, reasonably priced, great mattress, an outdoor swimming pool, and located in a quiet kind of secluded spot near the lake just off the interstate, it is an nice place to get a nights rest.  Also, great for your dog as there is a large field between the hotel and lake to walk/run your best friend.  Breakfast is typical of the freebie fare.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r186171370-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>186171370</t>
+  </si>
+  <si>
+    <t>11/28/2013</t>
+  </si>
+  <si>
+    <t>Clean but but not remotely cordial or friendly</t>
+  </si>
+  <si>
+    <t>Helping our daughter and son-in-law move, we booked two rooms at the Lakeview Inn to use after the truck had been loaded and we needed places to sleep before traveling the next day.  The manager was anything but friendly.  After hearing a lecture on why we should not use services like hotel.com to book rooms, the manager absurdly insisted both my son-in-law and daughter come physically into the office area to present their credit card and driver's license (leaving their two young children in the car).  The check in, that normally takes maybe 5 minutes, took up nearly half an hour (and the rooms were both pre-paid!).  The rooms were acceptably clean, but I would certainly not stay here a second time.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Helping our daughter and son-in-law move, we booked two rooms at the Lakeview Inn to use after the truck had been loaded and we needed places to sleep before traveling the next day.  The manager was anything but friendly.  After hearing a lecture on why we should not use services like hotel.com to book rooms, the manager absurdly insisted both my son-in-law and daughter come physically into the office area to present their credit card and driver's license (leaving their two young children in the car).  The check in, that normally takes maybe 5 minutes, took up nearly half an hour (and the rooms were both pre-paid!).  The rooms were acceptably clean, but I would certainly not stay here a second time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r184928250-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -870,12 +1194,6 @@
     <t>Great service at the Best Western Lakeview Inn. Quiet corner in the back and did not hear any traffic from Interstate 30. The room was clean, bed very comfortable with a great shower. Breakfast was good and fresh tasting. No complaints and would stay again if  travelling in the area.</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
-    <t>Thomas A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r183712755-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -891,9 +1209,6 @@
     <t>Bad mosquitoe problem---was not that clean--very noisy freeway traffic--avoid it like the plaque.It is situated in an area that was desirable for my needs but it just did not measure up to what I was used to My next trip to this area I will spend more money and stay at a better place.</t>
   </si>
   <si>
-    <t>Louis C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r182895214-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -909,10 +1224,45 @@
     <t>Wonderfully helpful staff great access from freeway slept like a baby! The room is neat and clean hot water instantly for a great shower, even great t v and the best the rooms are quiet. The staff was incredibly helpful going out of their way to help me navigate the freeways and get to the airport on time and in a safe manner, what else is there to love but a friendly helpful safe place to call home for a few days! Great time here.</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
-    <t>Brady K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r181868659-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>181868659</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Nice, clean and reasonably priced Inn!</t>
+  </si>
+  <si>
+    <t>We were happily surprised by this Inn. Great counter help (they live on site) made both check-in and check-out easy, We stayed on the back side of the Inn. We had a King Size bed and it was very nice. Room had small refrigerator, microwave, coffee-maker, iron, and ironing board. It also had a TV with 50 channels including complimentary HBO. Room was very clean and was kept that way throughout the stay by the maids. These aren't five star rooms, but they were clean and comfortable. Note, the Inn is right off of Interstate 30. We turned the fan on and that tuned out the highway noise. However, if you are a light sleeper, you may want to bring ear plugs.
+The Inn offers a fairly nice free breakfast with eggs, sausage, gravy, donuts, pastries, yogurts, cereals, toast, juice and plenty of coffee. It also had a waffle maker that made some really decent waffles.
+Wi-Fi was outstanding and also free. There is a computer with a printer in the lobby if you need to print something off.
+There was a very nice walking trail in the park by the Lake which is about 1/4 mile from the hotel. Have the lobby folks point out how to get there. I walked it every morning and really enjoyed it.
+The other kooky thing is just getting to the place. Bass Lake Drive takes you back up and over the freeway...We were happily surprised by this Inn. Great counter help (they live on site) made both check-in and check-out easy, We stayed on the back side of the Inn. We had a King Size bed and it was very nice. Room had small refrigerator, microwave, coffee-maker, iron, and ironing board. It also had a TV with 50 channels including complimentary HBO. Room was very clean and was kept that way throughout the stay by the maids. These aren't five star rooms, but they were clean and comfortable. Note, the Inn is right off of Interstate 30. We turned the fan on and that tuned out the highway noise. However, if you are a light sleeper, you may want to bring ear plugs.The Inn offers a fairly nice free breakfast with eggs, sausage, gravy, donuts, pastries, yogurts, cereals, toast, juice and plenty of coffee. It also had a waffle maker that made some really decent waffles.Wi-Fi was outstanding and also free. There is a computer with a printer in the lobby if you need to print something off.There was a very nice walking trail in the park by the Lake which is about 1/4 mile from the hotel. Have the lobby folks point out how to get there. I walked it every morning and really enjoyed it.The other kooky thing is just getting to the place. Bass Lake Drive takes you back up and over the freeway from the direction we came and then we had to go through an apartment parking lot to get to the Inn. Perhaps we did it wrong, but once we got used to it, it was okay. rPool looked very nice and clean, but it was a bit chilly.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were happily surprised by this Inn. Great counter help (they live on site) made both check-in and check-out easy, We stayed on the back side of the Inn. We had a King Size bed and it was very nice. Room had small refrigerator, microwave, coffee-maker, iron, and ironing board. It also had a TV with 50 channels including complimentary HBO. Room was very clean and was kept that way throughout the stay by the maids. These aren't five star rooms, but they were clean and comfortable. Note, the Inn is right off of Interstate 30. We turned the fan on and that tuned out the highway noise. However, if you are a light sleeper, you may want to bring ear plugs.
+The Inn offers a fairly nice free breakfast with eggs, sausage, gravy, donuts, pastries, yogurts, cereals, toast, juice and plenty of coffee. It also had a waffle maker that made some really decent waffles.
+Wi-Fi was outstanding and also free. There is a computer with a printer in the lobby if you need to print something off.
+There was a very nice walking trail in the park by the Lake which is about 1/4 mile from the hotel. Have the lobby folks point out how to get there. I walked it every morning and really enjoyed it.
+The other kooky thing is just getting to the place. Bass Lake Drive takes you back up and over the freeway...We were happily surprised by this Inn. Great counter help (they live on site) made both check-in and check-out easy, We stayed on the back side of the Inn. We had a King Size bed and it was very nice. Room had small refrigerator, microwave, coffee-maker, iron, and ironing board. It also had a TV with 50 channels including complimentary HBO. Room was very clean and was kept that way throughout the stay by the maids. These aren't five star rooms, but they were clean and comfortable. Note, the Inn is right off of Interstate 30. We turned the fan on and that tuned out the highway noise. However, if you are a light sleeper, you may want to bring ear plugs.The Inn offers a fairly nice free breakfast with eggs, sausage, gravy, donuts, pastries, yogurts, cereals, toast, juice and plenty of coffee. It also had a waffle maker that made some really decent waffles.Wi-Fi was outstanding and also free. There is a computer with a printer in the lobby if you need to print something off.There was a very nice walking trail in the park by the Lake which is about 1/4 mile from the hotel. Have the lobby folks point out how to get there. I walked it every morning and really enjoyed it.The other kooky thing is just getting to the place. Bass Lake Drive takes you back up and over the freeway from the direction we came and then we had to go through an apartment parking lot to get to the Inn. Perhaps we did it wrong, but once we got used to it, it was okay. rPool looked very nice and clean, but it was a bit chilly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r181544699-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>181544699</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Great Staff, Uncomfortable Bed</t>
+  </si>
+  <si>
+    <t>The king size bed was the most uncomfortable I had ever slept in. By the third night, we had to sleep in it crossways to be able to wake up without severe backaches. The AC was very noisy. But, the staff was very nice and professional!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r181179168-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -933,9 +1283,6 @@
     <t>This Best Western is in a pretty good location.  Easy access to I-30 and also to the President George Bush Turnpike (which is a great road to use to avoid Dallas traffic).  It is about a 20 minute drive in good traffic or an hour in bad to downtown Dallas.  The staff was very friendly and great on my arrival and departure.  The room was clean, the bed was very comfortable, and it was a nice area which are the main things I look for when staying in a hotel.  The breakfast was pretty basic but at this price range of hotel that is expected.  The room furnishings are nothing fancy but if your just looking for a great place to sleep for a night or two in the area at a good price, this is a great one to stay at.More</t>
   </si>
   <si>
-    <t>CloggieUsa2001</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r179651729-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -954,9 +1301,6 @@
     <t>The guy who checked us in was TONY,, he was very sweet and very professional, dressed really nice.. he showed me how to use the key card to turn on the lights in the room ( this was a new one for me ), and we loved our clean, room, it smelled wonderful, the room was already nice and cool..Hubby decided to take a walk down to the lake to take a look, he came back very disapointed , he said there was trash and beer cans littering the shores of the lake, how sad.The shower was terrific.. breakfast was nice, we had plenty to eat:-)The WIFI worked just fine too.More</t>
   </si>
   <si>
-    <t>SRobinson2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r175710088-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -975,7 +1319,34 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t>Cheri W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r175194600-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>175194600</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Location worked well for Genealogy Trip</t>
+  </si>
+  <si>
+    <t>Went to Dallas library downtown and rode the rapid transit train from Rowlett station.  Easy, short drive to station.  We avoided the Dallas traffic and it made our research trip convenient. Plenty of restaurants close to hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r172093466-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>172093466</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>I spent two nights here and found this hotel/room to be comfortable, clean, and staff was helpful as needed. There is a pool, and lake view! Pet friendly, and I will be sure to stay here when I have to be in Garland/Dallas area next.  The A/C worked great and the room was cool upon check in #125, considering it was 105 outside!  Thanks Barbara!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r171828340-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -987,15 +1358,9 @@
     <t>08/11/2013</t>
   </si>
   <si>
-    <t>Home away from Home</t>
-  </si>
-  <si>
     <t>I spent two nights here and found this hotel/room to be comfortable, clean, and staff was helpful as needed.  There is a pool, and lake view! Pet friendly, and I will be sure to stay here when I have to be in Garland/Dallas area next.</t>
   </si>
   <si>
-    <t>Richard F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r171282668-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1005,15 +1370,9 @@
     <t>08/07/2013</t>
   </si>
   <si>
-    <t>Best Western Lakeview</t>
-  </si>
-  <si>
     <t>Good value, clean rooms.  We experienced minor problem with the room getting cool enough, but the A/C was completely off when we checked in at 8 pm and the temps during the day had reached over 100 degrees.  Otherwise, it was a decent room for a reasonable rate.</t>
   </si>
   <si>
-    <t>perkyone1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r170794204-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1032,7 +1391,54 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Larry B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r166809210-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>166809210</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Fourth of July</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed here for 4 nights thru Fourth of July weekend. I called ahead made reservations &amp; got a 61.99+ tax also i brought up that i seen online a stay 3 nights &amp; 4th night discounted stay.so I booked &amp; gave my credit card to hold. This was so not the case at check out. 
+It was higher per night &amp; weekends were even higher. 
+My husband checked us out I did not see the receipt until we left. 
+Also I did not appreciate a phone call telling me that check out is in 20 minutes. I'm not a child. I'm guessing that this is a small family owned place because they seem very controlling. 
+The room was clean, beds comfy, hot breakfast consist of round egg patties, sasuage patties &amp; gravy. 
+The staff was very sweet &amp; helpful. Keep in mind that your dealing with a lower end hotel &amp; because of this you at times have to share the pool area with people with no social ettiquette.  We eere only able to enjoy the pool area twice in 4 days. We chose this hotel only because location to bass pro &amp; lake. 
+Incase your wondering even if they tell you on the phone that u can get a lake side room, while that is true except they fail to tell you that they actually do not have a lake view rooms. 
+We were on...My husband &amp; I stayed here for 4 nights thru Fourth of July weekend. I called ahead made reservations &amp; got a 61.99+ tax also i brought up that i seen online a stay 3 nights &amp; 4th night discounted stay.so I booked &amp; gave my credit card to hold. This was so not the case at check out. It was higher per night &amp; weekends were even higher. My husband checked us out I did not see the receipt until we left. Also I did not appreciate a phone call telling me that check out is in 20 minutes. I'm not a child. I'm guessing that this is a small family owned place because they seem very controlling. The room was clean, beds comfy, hot breakfast consist of round egg patties, sasuage patties &amp; gravy. The staff was very sweet &amp; helpful. Keep in mind that your dealing with a lower end hotel &amp; because of this you at times have to share the pool area with people with no social ettiquette.  We eere only able to enjoy the pool area twice in 4 days. We chose this hotel only because location to bass pro &amp; lake. Incase your wondering even if they tell you on the phone that u can get a lake side room, while that is true except they fail to tell you that they actually do not have a lake view rooms. We were on a parents getaway &amp; will be doing this once a month. We were hoping to stay at the same hotel everytime, doesn't look like this is the the place. **Cons:-You have to walk down to pool area for the Ice machine. -Hair dryer does not even get warm, low cold air only. - they charge you whatever they want regardless of any earlier quotes or online discounts. - when tv &amp; AC is off the room is very noisey because it sits on I-30.- constantly have to sign back into WiFi **Pros:-Fridge is quite large for a motel -clean rooms - location to lake ray Hubbard resturants &amp; bass pro shop. - breakfast ( cereal, pastries, waffles ect.. Like most motels. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed here for 4 nights thru Fourth of July weekend. I called ahead made reservations &amp; got a 61.99+ tax also i brought up that i seen online a stay 3 nights &amp; 4th night discounted stay.so I booked &amp; gave my credit card to hold. This was so not the case at check out. 
+It was higher per night &amp; weekends were even higher. 
+My husband checked us out I did not see the receipt until we left. 
+Also I did not appreciate a phone call telling me that check out is in 20 minutes. I'm not a child. I'm guessing that this is a small family owned place because they seem very controlling. 
+The room was clean, beds comfy, hot breakfast consist of round egg patties, sasuage patties &amp; gravy. 
+The staff was very sweet &amp; helpful. Keep in mind that your dealing with a lower end hotel &amp; because of this you at times have to share the pool area with people with no social ettiquette.  We eere only able to enjoy the pool area twice in 4 days. We chose this hotel only because location to bass pro &amp; lake. 
+Incase your wondering even if they tell you on the phone that u can get a lake side room, while that is true except they fail to tell you that they actually do not have a lake view rooms. 
+We were on...My husband &amp; I stayed here for 4 nights thru Fourth of July weekend. I called ahead made reservations &amp; got a 61.99+ tax also i brought up that i seen online a stay 3 nights &amp; 4th night discounted stay.so I booked &amp; gave my credit card to hold. This was so not the case at check out. It was higher per night &amp; weekends were even higher. My husband checked us out I did not see the receipt until we left. Also I did not appreciate a phone call telling me that check out is in 20 minutes. I'm not a child. I'm guessing that this is a small family owned place because they seem very controlling. The room was clean, beds comfy, hot breakfast consist of round egg patties, sasuage patties &amp; gravy. The staff was very sweet &amp; helpful. Keep in mind that your dealing with a lower end hotel &amp; because of this you at times have to share the pool area with people with no social ettiquette.  We eere only able to enjoy the pool area twice in 4 days. We chose this hotel only because location to bass pro &amp; lake. Incase your wondering even if they tell you on the phone that u can get a lake side room, while that is true except they fail to tell you that they actually do not have a lake view rooms. We were on a parents getaway &amp; will be doing this once a month. We were hoping to stay at the same hotel everytime, doesn't look like this is the the place. **Cons:-You have to walk down to pool area for the Ice machine. -Hair dryer does not even get warm, low cold air only. - they charge you whatever they want regardless of any earlier quotes or online discounts. - when tv &amp; AC is off the room is very noisey because it sits on I-30.- constantly have to sign back into WiFi **Pros:-Fridge is quite large for a motel -clean rooms - location to lake ray Hubbard resturants &amp; bass pro shop. - breakfast ( cereal, pastries, waffles ect.. Like most motels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r159361224-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>159361224</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Me and my best friend had planed to stay from May 3-5 then her grandma we were to visit sadly her passed away so we had to come early April 26-28 the customer service Jill i think was her name was outstanding and change our reservations on short notice and got it about five dollars cheaper when we got checked in our room was great nice and clean Barbara and her staff were very friendly and professional even the continental breakfast was good and hotel was quiet at night thanks to Best Western for making this sad trip go as smoothly as possible with our room .</t>
+  </si>
+  <si>
+    <t>April 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r159025474-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -1050,12 +1456,6 @@
     <t xml:space="preserve">After another stay at this very nice motel....again it was a great quiet stay with NO problems. Rooms are very nice, clean and staff helpful. Nice location outside the rush of downtown Dallas. Parking was nice ans security lighting great. Will stay here again and tell friends of this value.   </t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
-    <t>nazirites</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r151902374-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1074,9 +1474,6 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>LauraP232</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r150886438-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1095,7 +1492,37 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>Honey76049</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r146069150-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>146069150</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>It's a motel ..</t>
+  </si>
+  <si>
+    <t>It looks like a very cheap motel renamed to best western ... There is no lake view as it says. But I felt it had some good breakfast and worth if you get the rooms below 50$. The balcony was dirty and tons of mosquitoes probably because it is close to the lake. I would avoid staying here unless on budget and want to stay overnight only.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r142580921-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>142580921</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>Small nice hotel</t>
+  </si>
+  <si>
+    <t>Small independently owned hotel in Garland.  Room was large, very clean, staff was so friendly.  We got lost in Dallas and when I called the front desk person gave me turn by turn instructions which were perfect.  The location is right by the lake in Garland which is so beautiful.  They recommended several restaurants in the area that were on the lake which were really nice and the food and view was excellent</t>
+  </si>
+  <si>
+    <t>October 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r135928712-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -1116,9 +1543,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>TravelGirl8181</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r133032664-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1140,9 +1564,6 @@
     <t>We stayed here one night on our move from Atlanta to Dallas in May 2012 and everything was great overall. We had one snafu with our reservation and when I arrived to check in, they said they had just released the room and marked us as a no-show, but luckily the room was still available. So make sure you double-check your reservation the day of! Otherwise, the room was very clean and comfortable. The bed was comfortable and had modern white linens (not those old ugly bed covers that some old chains still have...). We stayed with our dog, which we're always weary of doing because most hotels that accept dogs are pretty gross. But you'd never know another dog stayed in this room, it was spotless and smelled fresh and clean. They have a good-sized grassy area for letting your dog do its business, and a big open grassy field next door is great for a quick walk or run around. Breakfast in the morning was typical, loved the Texas-shaped waffle irons. The breakfast room was clean, nicely decorated. The staff were all friendly. Overall, I would definitely recommend this hotel as a great value option, especially for people traveling with dogs.More</t>
   </si>
   <si>
-    <t>Txgirl67</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r130061225-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1158,7 +1579,43 @@
     <t>We stayed here 4 nights when a tree branch fell on our power line &amp; started a small fire. The room was good sized with a microwave &amp; mini fridge.  Breakfast was the normal food you get at a hotel.  I had no complaints whatsoever.  Promo's Tex -Mex by Bass Pro shop was really good for dinner.</t>
   </si>
   <si>
-    <t>igitaround27</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r127497457-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>127497457</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Barbera on the desk was brilliant treated us like old friends, made us feel very welcome as did Drew and all the other staff. Breakfast was very good and plenty of it. The room was a good size and well furnished the bed very comfortable good pillows and sheets. We had a leak from the room above ours late at night my husband reported it to the night porter who in turn informed housekeeping (Drew) we were given another room immeditately, the staff were very apologetic. The hotel has some good restaurants close by. Dallas is also with in easy reach.I would recommend this hotel to my family and friends. A big thumbs up from me!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Barbera on the desk was brilliant treated us like old friends, made us feel very welcome as did Drew and all the other staff. Breakfast was very good and plenty of it. The room was a good size and well furnished the bed very comfortable good pillows and sheets. We had a leak from the room above ours late at night my husband reported it to the night porter who in turn informed housekeeping (Drew) we were given another room immeditately, the staff were very apologetic. The hotel has some good restaurants close by. Dallas is also with in easy reach.I would recommend this hotel to my family and friends. A big thumbs up from me!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r123163763-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>123163763</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>Good place to stop on our way to SPI</t>
+  </si>
+  <si>
+    <t>BEST WESTERN Lakeview Inn.  The young gentleman on desk was friendly.. This hotel is beside the Interstate – a lot of traffic but it was quiet inside room.  	Nice LARGE lobby with separate large breakfast room.  The room itself was large, had 2 end tables, 4 pillows, lots of lights.  There was a table for the computer, but I cannot see the TV when working on my laptop.  It is an old style TV.  The WiFi was ok, but you need to enter a user name and password.  There is a sofa, coffee table and end table with lamp.  The microwave and fridge is in a stand which provides a storage place to put food etc.  The fridge has  aLARGE freezer with door separate from fridge.  The sink and counter is outside bathroom with coffee maker on it.  There is a small  bathroom.  The light and fan are on same switch.  No elevator, No inner corridor.  Heat was not on and room was chilly when we arrived.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>BEST WESTERN Lakeview Inn.  The young gentleman on desk was friendly.. This hotel is beside the Interstate – a lot of traffic but it was quiet inside room.  	Nice LARGE lobby with separate large breakfast room.  The room itself was large, had 2 end tables, 4 pillows, lots of lights.  There was a table for the computer, but I cannot see the TV when working on my laptop.  It is an old style TV.  The WiFi was ok, but you need to enter a user name and password.  There is a sofa, coffee table and end table with lamp.  The microwave and fridge is in a stand which provides a storage place to put food etc.  The fridge has  aLARGE freezer with door separate from fridge.  The sink and counter is outside bathroom with coffee maker on it.  There is a small  bathroom.  The light and fan are on same switch.  No elevator, No inner corridor.  Heat was not on and room was chilly when we arrived.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r119658056-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -1179,9 +1636,6 @@
     <t>October 2011</t>
   </si>
   <si>
-    <t>stephanie v</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r119501713-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1197,9 +1651,6 @@
     <t>Best Western Lakeview Inn is located in the middle of all of our family located in the Dallas area. We have been staying at this hotel for many years and have always had a wonderful stay. In the past year they have updated the rooms and are up to date and very comfortable. The staff was very helpful with information regarding the State Fair on this trip (They are always very professional and friendly). I would recommend this hotel for all of my family and friends.</t>
   </si>
   <si>
-    <t>retired2010_10</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r116940995-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1218,7 +1669,34 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>MikePaloAlto</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r116617593-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>116617593</t>
+  </si>
+  <si>
+    <t>08/12/2011</t>
+  </si>
+  <si>
+    <t>Credit Card info stolen</t>
+  </si>
+  <si>
+    <t>Credit card was copied.  Next day it was used fraudulently.  No other hotel ever copied the credit card.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r116403340-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>116403340</t>
+  </si>
+  <si>
+    <t>08/07/2011</t>
+  </si>
+  <si>
+    <t>A group stayed here renting over 10 rooms and the stay was very unplesant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air conditioner was horrible.  Our door would not work properly half the time it would not even lock. This is a family runned business at this location and I found the management not the first bit professional. I do not recommend staying here it was a nightmare staying here for 4 nights. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r115821635-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -1242,9 +1720,6 @@
     <t>I just spent five nights here while conducting family business in the area. I have traveled a lot over my career and stayed in every type of hotel from cheap to the very best. So by comparison  I feel compelled to complement this nice, well managed hotel.The Lakeside Hotel is outstanding value for a clean up to date place to stay. My room was a really decent size, the king bed was super, the air conditioning totally up to the job (100 degree days) and the rest of the room and bath was modern and up to date. The maid service was perfect, and the rest of the staff was cheerful and helpful through out my stay.The bonuses are the breakfast each morning, and the really nice pool out  back away from the freeway. I was there on the 25th consecutive day over 100 degrees so the pool was a real plus.Two thumbs up for covering the essentials with really good value.More</t>
   </si>
   <si>
-    <t>cancunbunny</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r115374827-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1260,9 +1735,6 @@
     <t>Rooms were clean and beds were comfortable. Pretty good continental breakfast. Pool was nice. Good restaurant across the street were great. Staff was great.</t>
   </si>
   <si>
-    <t>Prayingpam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r100668519-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1281,7 +1753,40 @@
     <t>March 2011</t>
   </si>
   <si>
-    <t>PalmSpringsVisitors</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r88210852-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>88210852</t>
+  </si>
+  <si>
+    <t>11/25/2010</t>
+  </si>
+  <si>
+    <t>Good place to stay the night</t>
+  </si>
+  <si>
+    <t>It was a good room. Nothing fancy but we did get a good night's sleep. The staff are very friendly and helpful.  The only downside was accessing the property. There was road construction and it took a few minutes for us to figure out we had to do a loop and go under a bridge to get to it. Overall, it was a nice hotel for an overnight stay.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r74228997-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>74228997</t>
+  </si>
+  <si>
+    <t>08/07/2010</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL AND GREAT STAFF</t>
+  </si>
+  <si>
+    <t>I was traveling with my friends for a summer get away.  The staff was very friendly and treated all of us as long lost family. Tthe rooms were very clean and comfortable.  We will be staying at this hotel on our next visit through Garland.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r52331171-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -1305,9 +1810,6 @@
     <t>We were on a road trip from Central California to Texas and Oklahoma for the Christmas holidays and stayed at the Best Western Lakeview Motel while visiting relatives in Rowlett.  Trip Advisor reviews had been very positive about the motel, and we agreed with them 100%.    It is well located just off a major highway and easy to find.  I was concerned about highway noise, but once in the room it was very quiet.  The room was huge, with a king bed and table and chairs.  It could have held a loveseat or easy chair without a problem (hint to the manager!).  The bed was very comfortable, which we appreciated after a long drive.  There was a nice breakfast, with hot items along with cereal, toast, and danish.  The clerks were very friendly and helpful with local information. We would definitely stay there again.More</t>
   </si>
   <si>
-    <t>Ann R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r42057361-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1329,9 +1831,6 @@
     <t>The nice young man on the desk took care of our check-in professionally and gave us an excellent suggestion for dinner.  We wanted a nice place but did not want to drive back and forth on the interstate.  The seafood restaurant INSIDE The Bass Pro Shop was a surprise: moist fresh seafood at a fair price in a restful setting - and it was so easy to get to.  The room was clean and had a table with chairs, a microwave, and a small fridge.  The TV was large enough to enjoy the picture.  We used a coupon from one of the travel magazines you can get at the state welcome station and the two queen bedded room with hot breakfast was $49 - a good deal.  The motel is right on the lake and we enjoyed walking around the grounds to see the boaters.More</t>
   </si>
   <si>
-    <t>amandakgrimes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r31260186-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
   </si>
   <si>
@@ -1350,7 +1849,46 @@
     <t>May 2009</t>
   </si>
   <si>
-    <t>Sewtex</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r17401845-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>17401845</t>
+  </si>
+  <si>
+    <t>07/01/2008</t>
+  </si>
+  <si>
+    <t>Perfect surroundings</t>
+  </si>
+  <si>
+    <t>My husband and I are from South TX and our grown children live in Garland.  We liked the looks of this motel from the internet virtual tour.  Our stay was very pleasant.  We stayed 3 nights.  The front desk staff was the friendliest that I have ever seen.  The breakfast was good. They had Texas shaped waffles, biscuits, gravy, eggs, sausage, cereal and danish.  The first night we stayed upstairs on the west side away from I-30.  The a/c never did cool the room down until about 2 am. The next morning we asked for another room. We got the room right below it.  It was great. We were right by the pool.  This motel has condos right behind it and while you are at the pool the neighbors might be in their backyard. But it was all good.  You can walk down to the lake, but it is simple to drive down. No traffic. The most beautiful lake side I have ever seen. Beautiful grass with a sidewalk around the edge of the lake.  Fishermen sitting on pavement . That's the cleanest fishing I've ever seen.  Directly across I-30 is the Bass Pro Shop. It's huge. If you've never been to one, be sure to go.  Even if you don't buy anything there are so many things to look at.  It's almost like a tourist attraction.  Drive across the bridge over the lake to Rockwall.  It's a pretty drive....My husband and I are from South TX and our grown children live in Garland.  We liked the looks of this motel from the internet virtual tour.  Our stay was very pleasant.  We stayed 3 nights.  The front desk staff was the friendliest that I have ever seen.  The breakfast was good. They had Texas shaped waffles, biscuits, gravy, eggs, sausage, cereal and danish.  The first night we stayed upstairs on the west side away from I-30.  The a/c never did cool the room down until about 2 am. The next morning we asked for another room. We got the room right below it.  It was great. We were right by the pool.  This motel has condos right behind it and while you are at the pool the neighbors might be in their backyard. But it was all good.  You can walk down to the lake, but it is simple to drive down. No traffic. The most beautiful lake side I have ever seen. Beautiful grass with a sidewalk around the edge of the lake.  Fishermen sitting on pavement . That's the cleanest fishing I've ever seen.  Directly across I-30 is the Bass Pro Shop. It's huge. If you've never been to one, be sure to go.  Even if you don't buy anything there are so many things to look at.  It's almost like a tourist attraction.  Drive across the bridge over the lake to Rockwall.  It's a pretty drive.  We will probably be going back as long as our kiddos are in that area.  We would SURELY stay at this motel again any day!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>My husband and I are from South TX and our grown children live in Garland.  We liked the looks of this motel from the internet virtual tour.  Our stay was very pleasant.  We stayed 3 nights.  The front desk staff was the friendliest that I have ever seen.  The breakfast was good. They had Texas shaped waffles, biscuits, gravy, eggs, sausage, cereal and danish.  The first night we stayed upstairs on the west side away from I-30.  The a/c never did cool the room down until about 2 am. The next morning we asked for another room. We got the room right below it.  It was great. We were right by the pool.  This motel has condos right behind it and while you are at the pool the neighbors might be in their backyard. But it was all good.  You can walk down to the lake, but it is simple to drive down. No traffic. The most beautiful lake side I have ever seen. Beautiful grass with a sidewalk around the edge of the lake.  Fishermen sitting on pavement . That's the cleanest fishing I've ever seen.  Directly across I-30 is the Bass Pro Shop. It's huge. If you've never been to one, be sure to go.  Even if you don't buy anything there are so many things to look at.  It's almost like a tourist attraction.  Drive across the bridge over the lake to Rockwall.  It's a pretty drive....My husband and I are from South TX and our grown children live in Garland.  We liked the looks of this motel from the internet virtual tour.  Our stay was very pleasant.  We stayed 3 nights.  The front desk staff was the friendliest that I have ever seen.  The breakfast was good. They had Texas shaped waffles, biscuits, gravy, eggs, sausage, cereal and danish.  The first night we stayed upstairs on the west side away from I-30.  The a/c never did cool the room down until about 2 am. The next morning we asked for another room. We got the room right below it.  It was great. We were right by the pool.  This motel has condos right behind it and while you are at the pool the neighbors might be in their backyard. But it was all good.  You can walk down to the lake, but it is simple to drive down. No traffic. The most beautiful lake side I have ever seen. Beautiful grass with a sidewalk around the edge of the lake.  Fishermen sitting on pavement . That's the cleanest fishing I've ever seen.  Directly across I-30 is the Bass Pro Shop. It's huge. If you've never been to one, be sure to go.  Even if you don't buy anything there are so many things to look at.  It's almost like a tourist attraction.  Drive across the bridge over the lake to Rockwall.  It's a pretty drive.  We will probably be going back as long as our kiddos are in that area.  We would SURELY stay at this motel again any day!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r14022185-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>14022185</t>
+  </si>
+  <si>
+    <t>03/03/2008</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>I must say my stay at this hotel was a very plesant supprise. The staff was very professional, and everyone was just plane nice. We encountered no problems at all in our stay here. The best thing was the room. The beds were very comfortable, the room was clean and had no odor of any sort.  We stayed there 2 nights. We would not hesitate to stay at this hotel again. They allow pets but we never heard any of them. At first we were concerned about the freeway noise but the rooms are insulated enough that it was no bother at all. Our room had a small refrigator and micorwave which worked good. There are places to eat close by and we tried the Bass Pro on the other side of the freeway. What a great experience we had there. Overall I would rate this place as a A++ and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>I must say my stay at this hotel was a very plesant supprise. The staff was very professional, and everyone was just plane nice. We encountered no problems at all in our stay here. The best thing was the room. The beds were very comfortable, the room was clean and had no odor of any sort.  We stayed there 2 nights. We would not hesitate to stay at this hotel again. They allow pets but we never heard any of them. At first we were concerned about the freeway noise but the rooms are insulated enough that it was no bother at all. Our room had a small refrigator and micorwave which worked good. There are places to eat close by and we tried the Bass Pro on the other side of the freeway. What a great experience we had there. Overall I would rate this place as a A++ and would stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d73528-r5944706-Quality_Inn_Suites_Garland_East_Dallas-Garland_Texas.html</t>
@@ -1876,47 +2414,43 @@
       <c r="A2" t="n">
         <v>32276</v>
       </c>
-      <c r="B2" t="n">
-        <v>15668</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1930,64 +2464,62 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32276</v>
       </c>
-      <c r="B3" t="n">
-        <v>173877</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1995,72 +2527,66 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32276</v>
       </c>
-      <c r="B4" t="n">
-        <v>7035</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
       <c r="Y4" t="s">
         <v>69</v>
       </c>
@@ -2069,60 +2595,50 @@
       <c r="A5" t="n">
         <v>32276</v>
       </c>
-      <c r="B5" t="n">
-        <v>72556</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -2136,59 +2652,53 @@
       <c r="A6" t="n">
         <v>32276</v>
       </c>
-      <c r="B6" t="n">
-        <v>3843</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2196,66 +2706,62 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32276</v>
       </c>
-      <c r="B7" t="n">
-        <v>16792</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
         <v>89</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2263,64 +2769,60 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32276</v>
       </c>
-      <c r="B8" t="n">
-        <v>173878</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2328,54 +2830,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32276</v>
       </c>
-      <c r="B9" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
         <v>102</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="J9" t="s">
+      <c r="O9" t="s">
         <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" t="s">
-        <v>87</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2389,62 +2887,58 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32276</v>
       </c>
-      <c r="B10" t="n">
-        <v>8052</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
         <v>109</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>110</v>
       </c>
-      <c r="J10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
       </c>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -2456,173 +2950,177 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32276</v>
       </c>
-      <c r="B11" t="n">
-        <v>15270</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
         <v>115</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>116</v>
       </c>
-      <c r="J11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>120</v>
-      </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32276</v>
       </c>
-      <c r="B12" t="n">
-        <v>173879</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32276</v>
       </c>
-      <c r="B13" t="n">
-        <v>4142</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2635,118 +3133,120 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32276</v>
       </c>
-      <c r="B14" t="n">
-        <v>173880</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32276</v>
       </c>
-      <c r="B15" t="n">
-        <v>173881</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2757,131 +3257,119 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32276</v>
       </c>
-      <c r="B16" t="n">
-        <v>173882</v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32276</v>
       </c>
-      <c r="B17" t="n">
-        <v>4279</v>
-      </c>
-      <c r="C17" t="s">
-        <v>155</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2889,68 +3377,60 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32276</v>
       </c>
-      <c r="B18" t="n">
-        <v>173883</v>
-      </c>
-      <c r="C18" t="s">
-        <v>162</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
         <v>2</v>
       </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2958,328 +3438,274 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32276</v>
       </c>
-      <c r="B19" t="n">
-        <v>173884</v>
-      </c>
-      <c r="C19" t="s">
-        <v>169</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32276</v>
       </c>
-      <c r="B20" t="n">
-        <v>37686</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32276</v>
       </c>
-      <c r="B21" t="n">
-        <v>173885</v>
-      </c>
-      <c r="C21" t="s">
-        <v>183</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32276</v>
       </c>
-      <c r="B22" t="n">
-        <v>151</v>
-      </c>
-      <c r="C22" t="s">
-        <v>190</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>189</v>
-      </c>
-      <c r="O22" t="s">
-        <v>79</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>32276</v>
       </c>
-      <c r="B23" t="n">
-        <v>173886</v>
-      </c>
-      <c r="C23" t="s">
-        <v>196</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3293,70 +3719,60 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32276</v>
       </c>
-      <c r="B24" t="n">
-        <v>15136</v>
-      </c>
-      <c r="C24" t="s">
-        <v>204</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="O24" t="s">
-        <v>79</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3364,138 +3780,110 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32276</v>
       </c>
-      <c r="B25" t="n">
-        <v>1135</v>
-      </c>
-      <c r="C25" t="s">
-        <v>211</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>210</v>
-      </c>
-      <c r="O25" t="s">
-        <v>87</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32276</v>
       </c>
-      <c r="B26" t="n">
-        <v>173887</v>
-      </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3506,67 +3894,59 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32276</v>
       </c>
-      <c r="B27" t="n">
-        <v>68620</v>
-      </c>
-      <c r="C27" t="s">
-        <v>223</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s">
-        <v>87</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
         <v>5</v>
       </c>
       <c r="R27" t="n">
         <v>5</v>
       </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3577,141 +3957,119 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32276</v>
       </c>
-      <c r="B28" t="n">
-        <v>173888</v>
-      </c>
-      <c r="C28" t="s">
-        <v>229</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="J28" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32276</v>
       </c>
-      <c r="B29" t="n">
-        <v>173889</v>
-      </c>
-      <c r="C29" t="s">
-        <v>236</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
         <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3719,70 +4077,60 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32276</v>
       </c>
-      <c r="B30" t="n">
-        <v>173890</v>
-      </c>
-      <c r="C30" t="s">
-        <v>243</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="J30" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="K30" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>4</v>
       </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3790,66 +4138,60 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32276</v>
       </c>
-      <c r="B31" t="n">
-        <v>173891</v>
-      </c>
-      <c r="C31" t="s">
-        <v>250</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="J31" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3861,70 +4203,62 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32276</v>
       </c>
-      <c r="B32" t="n">
-        <v>10872</v>
-      </c>
-      <c r="C32" t="s">
-        <v>255</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
         <v>3</v>
       </c>
-      <c r="N32" t="s">
-        <v>261</v>
-      </c>
-      <c r="O32" t="s">
-        <v>79</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
         <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3932,70 +4266,66 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32276</v>
       </c>
-      <c r="B33" t="n">
-        <v>173892</v>
-      </c>
-      <c r="C33" t="s">
-        <v>262</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="O33" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4003,54 +4333,50 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32276</v>
       </c>
-      <c r="B34" t="n">
-        <v>173893</v>
-      </c>
-      <c r="C34" t="s">
-        <v>270</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4062,7 +4388,7 @@
         <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -4074,63 +4400,59 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32276</v>
       </c>
-      <c r="B35" t="n">
-        <v>173894</v>
-      </c>
-      <c r="C35" t="s">
-        <v>278</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4145,70 +4467,60 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32276</v>
       </c>
-      <c r="B36" t="n">
-        <v>64905</v>
-      </c>
-      <c r="C36" t="s">
-        <v>285</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4216,54 +4528,50 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>32276</v>
       </c>
-      <c r="B37" t="n">
-        <v>7321</v>
-      </c>
-      <c r="C37" t="s">
-        <v>291</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4287,70 +4595,66 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>32276</v>
       </c>
-      <c r="B38" t="n">
-        <v>36475</v>
-      </c>
-      <c r="C38" t="s">
-        <v>298</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="J38" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4358,70 +4662,66 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>32276</v>
       </c>
-      <c r="B39" t="n">
-        <v>173895</v>
-      </c>
-      <c r="C39" t="s">
-        <v>305</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="J39" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="K39" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4429,141 +4729,123 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>32276</v>
       </c>
-      <c r="B40" t="n">
-        <v>173896</v>
-      </c>
-      <c r="C40" t="s">
-        <v>312</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="J40" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="K40" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="L40" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>32276</v>
       </c>
-      <c r="B41" t="n">
-        <v>59573</v>
-      </c>
-      <c r="C41" t="s">
-        <v>319</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="K41" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="L41" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4571,70 +4853,66 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>32276</v>
       </c>
-      <c r="B42" t="n">
-        <v>11210</v>
-      </c>
-      <c r="C42" t="s">
-        <v>325</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="J42" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="K42" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="L42" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4642,54 +4920,50 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>32276</v>
       </c>
-      <c r="B43" t="n">
-        <v>173897</v>
-      </c>
-      <c r="C43" t="s">
-        <v>331</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="K43" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="L43" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4713,70 +4987,66 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>32276</v>
       </c>
-      <c r="B44" t="n">
-        <v>3975</v>
-      </c>
-      <c r="C44" t="s">
-        <v>338</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="J44" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="K44" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="L44" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4784,54 +5054,50 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>32276</v>
       </c>
-      <c r="B45" t="n">
-        <v>173898</v>
-      </c>
-      <c r="C45" t="s">
-        <v>345</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="J45" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="K45" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="O45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4855,66 +5121,62 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>32276</v>
       </c>
-      <c r="B46" t="n">
-        <v>173899</v>
-      </c>
-      <c r="C46" t="s">
-        <v>352</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="J46" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="K46" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -4926,59 +5188,63 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>32276</v>
       </c>
-      <c r="B47" t="n">
-        <v>173900</v>
-      </c>
-      <c r="C47" t="s">
-        <v>359</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="J47" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="K47" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -4989,54 +5255,50 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>32276</v>
       </c>
-      <c r="B48" t="n">
-        <v>173901</v>
-      </c>
-      <c r="C48" t="s">
-        <v>366</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="J48" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5045,7 +5307,7 @@
         <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5060,70 +5322,66 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>32276</v>
       </c>
-      <c r="B49" t="n">
-        <v>173902</v>
-      </c>
-      <c r="C49" t="s">
-        <v>374</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="J49" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="K49" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="L49" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5131,57 +5389,53 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>32276</v>
       </c>
-      <c r="B50" t="n">
-        <v>173903</v>
-      </c>
-      <c r="C50" t="s">
-        <v>380</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="J50" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="K50" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="L50" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
         <v>4</v>
@@ -5194,7 +5448,7 @@
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5202,54 +5456,50 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>32276</v>
       </c>
-      <c r="B51" t="n">
-        <v>173904</v>
-      </c>
-      <c r="C51" t="s">
-        <v>387</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="J51" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="K51" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="O51" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5273,66 +5523,66 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>32276</v>
       </c>
-      <c r="B52" t="n">
-        <v>173905</v>
-      </c>
-      <c r="C52" t="s">
-        <v>393</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="J52" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="K52" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="L52" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="O52" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5340,62 +5590,62 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>32276</v>
       </c>
-      <c r="B53" t="n">
-        <v>173906</v>
-      </c>
-      <c r="C53" t="s">
-        <v>400</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="J53" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="K53" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="L53" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
@@ -5407,66 +5657,66 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>32276</v>
       </c>
-      <c r="B54" t="n">
-        <v>173907</v>
-      </c>
-      <c r="C54" t="s">
-        <v>408</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="J54" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="K54" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="L54" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="O54" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
       </c>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
       <c r="S54" t="n">
         <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5474,70 +5724,66 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>32276</v>
       </c>
-      <c r="B55" t="n">
-        <v>173908</v>
-      </c>
-      <c r="C55" t="s">
-        <v>414</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>416</v>
+        <v>357</v>
       </c>
       <c r="J55" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="K55" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="L55" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="O55" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5545,70 +5791,66 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>32276</v>
       </c>
-      <c r="B56" t="n">
-        <v>173909</v>
-      </c>
-      <c r="C56" t="s">
-        <v>421</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>422</v>
+        <v>362</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="J56" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="K56" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="O56" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5616,60 +5858,56 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>32276</v>
       </c>
-      <c r="B57" t="n">
-        <v>13498</v>
-      </c>
-      <c r="C57" t="s">
-        <v>429</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="J57" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="K57" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="L57" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="O57" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
         <v>4</v>
@@ -5679,7 +5917,7 @@
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5687,60 +5925,56 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>32276</v>
       </c>
-      <c r="B58" t="n">
-        <v>173910</v>
-      </c>
-      <c r="C58" t="s">
-        <v>437</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>439</v>
+        <v>376</v>
       </c>
       <c r="J58" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="K58" t="s">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="L58" t="s">
-        <v>442</v>
+        <v>379</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>443</v>
+        <v>373</v>
       </c>
       <c r="O58" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
         <v>5</v>
@@ -5750,7 +5984,7 @@
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5758,70 +5992,66 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>442</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>32276</v>
       </c>
-      <c r="B59" t="n">
-        <v>173911</v>
-      </c>
-      <c r="C59" t="s">
-        <v>444</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="J59" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="K59" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="O59" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5829,7 +6059,2712 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>387</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>388</v>
+      </c>
+      <c r="J60" t="s">
+        <v>389</v>
+      </c>
+      <c r="K60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L60" t="s">
+        <v>391</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>385</v>
+      </c>
+      <c r="O60" t="s">
+        <v>76</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>392</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>393</v>
+      </c>
+      <c r="J61" t="s">
+        <v>394</v>
+      </c>
+      <c r="K61" t="s">
+        <v>395</v>
+      </c>
+      <c r="L61" t="s">
+        <v>396</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>385</v>
+      </c>
+      <c r="O61" t="s">
+        <v>91</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>398</v>
+      </c>
+      <c r="J62" t="s">
+        <v>399</v>
+      </c>
+      <c r="K62" t="s">
+        <v>400</v>
+      </c>
+      <c r="L62" t="s">
+        <v>401</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>349</v>
+      </c>
+      <c r="O62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>402</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>403</v>
+      </c>
+      <c r="J63" t="s">
+        <v>404</v>
+      </c>
+      <c r="K63" t="s">
+        <v>405</v>
+      </c>
+      <c r="L63" t="s">
+        <v>406</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>349</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>408</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>409</v>
+      </c>
+      <c r="J64" t="s">
+        <v>410</v>
+      </c>
+      <c r="K64" t="s">
+        <v>411</v>
+      </c>
+      <c r="L64" t="s">
+        <v>412</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>349</v>
+      </c>
+      <c r="O64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>413</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>414</v>
+      </c>
+      <c r="J65" t="s">
+        <v>415</v>
+      </c>
+      <c r="K65" t="s">
+        <v>416</v>
+      </c>
+      <c r="L65" t="s">
+        <v>417</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>349</v>
+      </c>
+      <c r="O65" t="s">
+        <v>91</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>419</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>420</v>
+      </c>
+      <c r="J66" t="s">
+        <v>421</v>
+      </c>
+      <c r="K66" t="s">
+        <v>422</v>
+      </c>
+      <c r="L66" t="s">
+        <v>423</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>349</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>425</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>426</v>
+      </c>
+      <c r="J67" t="s">
+        <v>427</v>
+      </c>
+      <c r="K67" t="s">
+        <v>428</v>
+      </c>
+      <c r="L67" t="s">
+        <v>429</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>430</v>
+      </c>
+      <c r="O67" t="s">
+        <v>76</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>431</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>432</v>
+      </c>
+      <c r="J68" t="s">
+        <v>433</v>
+      </c>
+      <c r="K68" t="s">
+        <v>434</v>
+      </c>
+      <c r="L68" t="s">
+        <v>435</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>430</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>436</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>437</v>
+      </c>
+      <c r="J69" t="s">
+        <v>438</v>
+      </c>
+      <c r="K69" t="s">
+        <v>439</v>
+      </c>
+      <c r="L69" t="s">
+        <v>440</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>430</v>
+      </c>
+      <c r="O69" t="s">
+        <v>76</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>441</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>442</v>
+      </c>
+      <c r="J70" t="s">
+        <v>443</v>
+      </c>
+      <c r="K70" t="s">
+        <v>439</v>
+      </c>
+      <c r="L70" t="s">
+        <v>444</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>430</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>445</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>446</v>
+      </c>
+      <c r="J71" t="s">
+        <v>447</v>
+      </c>
+      <c r="K71" t="s">
+        <v>321</v>
+      </c>
+      <c r="L71" t="s">
+        <v>448</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>430</v>
+      </c>
+      <c r="O71" t="s">
+        <v>76</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>449</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>450</v>
+      </c>
+      <c r="J72" t="s">
         <v>451</v>
+      </c>
+      <c r="K72" t="s">
+        <v>452</v>
+      </c>
+      <c r="L72" t="s">
+        <v>453</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>454</v>
+      </c>
+      <c r="O72" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>455</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>456</v>
+      </c>
+      <c r="J73" t="s">
+        <v>457</v>
+      </c>
+      <c r="K73" t="s">
+        <v>458</v>
+      </c>
+      <c r="L73" t="s">
+        <v>459</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>461</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>462</v>
+      </c>
+      <c r="J74" t="s">
+        <v>463</v>
+      </c>
+      <c r="K74" t="s">
+        <v>464</v>
+      </c>
+      <c r="L74" t="s">
+        <v>465</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>466</v>
+      </c>
+      <c r="O74" t="s">
+        <v>76</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>467</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>468</v>
+      </c>
+      <c r="J75" t="s">
+        <v>469</v>
+      </c>
+      <c r="K75" t="s">
+        <v>470</v>
+      </c>
+      <c r="L75" t="s">
+        <v>471</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>466</v>
+      </c>
+      <c r="O75" t="s">
+        <v>76</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>472</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>473</v>
+      </c>
+      <c r="J76" t="s">
+        <v>474</v>
+      </c>
+      <c r="K76" t="s">
+        <v>475</v>
+      </c>
+      <c r="L76" t="s">
+        <v>476</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>477</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>478</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>479</v>
+      </c>
+      <c r="J77" t="s">
+        <v>480</v>
+      </c>
+      <c r="K77" t="s">
+        <v>481</v>
+      </c>
+      <c r="L77" t="s">
+        <v>482</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>483</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>484</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>485</v>
+      </c>
+      <c r="J78" t="s">
+        <v>486</v>
+      </c>
+      <c r="K78" t="s">
+        <v>487</v>
+      </c>
+      <c r="L78" t="s">
+        <v>488</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>489</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>490</v>
+      </c>
+      <c r="J79" t="s">
+        <v>491</v>
+      </c>
+      <c r="K79" t="s">
+        <v>492</v>
+      </c>
+      <c r="L79" t="s">
+        <v>493</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>494</v>
+      </c>
+      <c r="O79" t="s">
+        <v>76</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>495</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>496</v>
+      </c>
+      <c r="J80" t="s">
+        <v>497</v>
+      </c>
+      <c r="K80" t="s">
+        <v>498</v>
+      </c>
+      <c r="L80" t="s">
+        <v>499</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>500</v>
+      </c>
+      <c r="O80" t="s">
+        <v>76</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>501</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>502</v>
+      </c>
+      <c r="J81" t="s">
+        <v>503</v>
+      </c>
+      <c r="K81" t="s">
+        <v>504</v>
+      </c>
+      <c r="L81" t="s">
+        <v>505</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>506</v>
+      </c>
+      <c r="O81" t="s">
+        <v>76</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>508</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>509</v>
+      </c>
+      <c r="J82" t="s">
+        <v>510</v>
+      </c>
+      <c r="K82" t="s">
+        <v>511</v>
+      </c>
+      <c r="L82" t="s">
+        <v>512</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>506</v>
+      </c>
+      <c r="O82" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>513</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>514</v>
+      </c>
+      <c r="J83" t="s">
+        <v>515</v>
+      </c>
+      <c r="K83" t="s">
+        <v>516</v>
+      </c>
+      <c r="L83" t="s">
+        <v>517</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>477</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>519</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>520</v>
+      </c>
+      <c r="J84" t="s">
+        <v>521</v>
+      </c>
+      <c r="K84" t="s">
+        <v>522</v>
+      </c>
+      <c r="L84" t="s">
+        <v>523</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>524</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>526</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>527</v>
+      </c>
+      <c r="J85" t="s">
+        <v>528</v>
+      </c>
+      <c r="K85" t="s">
+        <v>529</v>
+      </c>
+      <c r="L85" t="s">
+        <v>530</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>531</v>
+      </c>
+      <c r="O85" t="s">
+        <v>91</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>532</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>533</v>
+      </c>
+      <c r="J86" t="s">
+        <v>534</v>
+      </c>
+      <c r="K86" t="s">
+        <v>535</v>
+      </c>
+      <c r="L86" t="s">
+        <v>536</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>531</v>
+      </c>
+      <c r="O86" t="s">
+        <v>76</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>537</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>538</v>
+      </c>
+      <c r="J87" t="s">
+        <v>539</v>
+      </c>
+      <c r="K87" t="s">
+        <v>540</v>
+      </c>
+      <c r="L87" t="s">
+        <v>541</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>542</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>543</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>544</v>
+      </c>
+      <c r="J88" t="s">
+        <v>545</v>
+      </c>
+      <c r="K88" t="s">
+        <v>546</v>
+      </c>
+      <c r="L88" t="s">
+        <v>547</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>542</v>
+      </c>
+      <c r="O88" t="s">
+        <v>76</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>548</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>549</v>
+      </c>
+      <c r="J89" t="s">
+        <v>550</v>
+      </c>
+      <c r="K89" t="s">
+        <v>551</v>
+      </c>
+      <c r="L89" t="s">
+        <v>552</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>553</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>554</v>
+      </c>
+      <c r="J90" t="s">
+        <v>555</v>
+      </c>
+      <c r="K90" t="s">
+        <v>556</v>
+      </c>
+      <c r="L90" t="s">
+        <v>557</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>558</v>
+      </c>
+      <c r="O90" t="s">
+        <v>76</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>560</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>561</v>
+      </c>
+      <c r="J91" t="s">
+        <v>562</v>
+      </c>
+      <c r="K91" t="s">
+        <v>563</v>
+      </c>
+      <c r="L91" t="s">
+        <v>564</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>558</v>
+      </c>
+      <c r="O91" t="s">
+        <v>76</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>565</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>566</v>
+      </c>
+      <c r="J92" t="s">
+        <v>567</v>
+      </c>
+      <c r="K92" t="s">
+        <v>568</v>
+      </c>
+      <c r="L92" t="s">
+        <v>569</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>570</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>571</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>572</v>
+      </c>
+      <c r="J93" t="s">
+        <v>573</v>
+      </c>
+      <c r="K93" t="s">
+        <v>574</v>
+      </c>
+      <c r="L93" t="s">
+        <v>575</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>576</v>
+      </c>
+      <c r="O93" t="s">
+        <v>76</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>577</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>578</v>
+      </c>
+      <c r="J94" t="s">
+        <v>579</v>
+      </c>
+      <c r="K94" t="s">
+        <v>580</v>
+      </c>
+      <c r="L94" t="s">
+        <v>581</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>582</v>
+      </c>
+      <c r="O94" t="s">
+        <v>104</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>583</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>584</v>
+      </c>
+      <c r="J95" t="s">
+        <v>585</v>
+      </c>
+      <c r="K95" t="s">
+        <v>586</v>
+      </c>
+      <c r="L95" t="s">
+        <v>587</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>588</v>
+      </c>
+      <c r="O95" t="s">
+        <v>76</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>590</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>591</v>
+      </c>
+      <c r="J96" t="s">
+        <v>592</v>
+      </c>
+      <c r="K96" t="s">
+        <v>593</v>
+      </c>
+      <c r="L96" t="s">
+        <v>594</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>595</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>597</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>598</v>
+      </c>
+      <c r="J97" t="s">
+        <v>599</v>
+      </c>
+      <c r="K97" t="s">
+        <v>600</v>
+      </c>
+      <c r="L97" t="s">
+        <v>601</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>602</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>603</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>604</v>
+      </c>
+      <c r="J98" t="s">
+        <v>605</v>
+      </c>
+      <c r="K98" t="s">
+        <v>606</v>
+      </c>
+      <c r="L98" t="s">
+        <v>607</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>608</v>
+      </c>
+      <c r="O98" t="s">
+        <v>76</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>610</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>611</v>
+      </c>
+      <c r="J99" t="s">
+        <v>612</v>
+      </c>
+      <c r="K99" t="s">
+        <v>613</v>
+      </c>
+      <c r="L99" t="s">
+        <v>614</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>615</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>32276</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>617</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>618</v>
+      </c>
+      <c r="J100" t="s">
+        <v>619</v>
+      </c>
+      <c r="K100" t="s">
+        <v>620</v>
+      </c>
+      <c r="L100" t="s">
+        <v>621</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>622</v>
+      </c>
+      <c r="O100" t="s">
+        <v>76</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
